--- a/database/ChinaCornProductionAndArea.xlsx
+++ b/database/ChinaCornProductionAndArea.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="nation" sheetId="1" r:id="rId1"/>
     <sheet name="province7" sheetId="2" r:id="rId2"/>
     <sheet name="cityproductarea" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="320">
   <si>
     <t>年份</t>
   </si>
@@ -197,6 +202,12 @@
   </si>
   <si>
     <t>17/18</t>
+  </si>
+  <si>
+    <t>18/19</t>
+  </si>
+  <si>
+    <t>19/20</t>
   </si>
   <si>
     <t>黑龙江面积</t>
@@ -1051,18 +1062,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,7 +1120,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1124,153 +1131,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1283,8 +1146,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,31 +1163,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799890133365886"/>
+        <fgColor theme="3" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,204 +1229,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1609,254 +1317,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1879,7 +1345,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1891,16 +1357,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1910,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -1930,7 +1396,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,63 +1474,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="3232" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="3232" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2322,22 +1756,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2407,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:16">
       <c r="A2" s="69" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +1853,7 @@
       </c>
       <c r="D2" s="62">
         <f>C2/B2*10</f>
-        <v>2.80271529482491</v>
+        <v>2.8027152948249086</v>
       </c>
       <c r="E2" s="71">
         <v>34421</v>
@@ -2429,7 +1863,7 @@
       </c>
       <c r="G2" s="64">
         <f>F2/E2*10</f>
-        <v>3.978094767729</v>
+        <v>3.9780947677290026</v>
       </c>
       <c r="H2" s="73">
         <v>29183</v>
@@ -2439,10 +1873,10 @@
       </c>
       <c r="J2" s="66">
         <f>I2/H2*10</f>
-        <v>1.84490970770654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1.8449097077065415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="69" t="s">
         <v>17</v>
       </c>
@@ -2454,7 +1888,7 @@
       </c>
       <c r="D3" s="62">
         <f t="shared" ref="D3:D20" si="0">C3/B3*10</f>
-        <v>3.11644347090158</v>
+        <v>3.116443470901578</v>
       </c>
       <c r="E3" s="74">
         <v>33878</v>
@@ -2464,7 +1898,7 @@
       </c>
       <c r="G3" s="64">
         <f t="shared" ref="G3:G20" si="1">F3/E3*10</f>
-        <v>4.12967117303265</v>
+        <v>4.1296711730326461</v>
       </c>
       <c r="H3" s="73">
         <v>28844</v>
@@ -2474,10 +1908,10 @@
       </c>
       <c r="J3" s="66">
         <f t="shared" ref="J3:J20" si="2">I3/H3*10</f>
-        <v>1.91391623907918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.9139162390791844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="69" t="s">
         <v>18</v>
       </c>
@@ -2489,17 +1923,17 @@
       </c>
       <c r="D4" s="62">
         <f t="shared" si="0"/>
-        <v>3.60721148411891</v>
+        <v>3.6072114841189107</v>
       </c>
       <c r="E4" s="74">
         <v>32070</v>
       </c>
       <c r="F4" s="72">
-        <v>16856.9</v>
+        <v>16856.900000000001</v>
       </c>
       <c r="G4" s="64">
         <f t="shared" si="1"/>
-        <v>5.2562831306517</v>
+        <v>5.2562831306516999</v>
       </c>
       <c r="H4" s="73">
         <v>29218</v>
@@ -2509,10 +1943,10 @@
       </c>
       <c r="J4" s="66">
         <f t="shared" si="2"/>
-        <v>2.93671709220344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2.9367170922034362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="69" t="s">
         <v>19</v>
       </c>
@@ -2524,17 +1958,17 @@
       </c>
       <c r="D5" s="62">
         <f t="shared" si="0"/>
-        <v>4.5240409326667</v>
+        <v>4.524040932666697</v>
       </c>
       <c r="E5" s="74">
         <v>33064</v>
       </c>
       <c r="F5" s="72">
-        <v>18933.1</v>
+        <v>18933.099999999999</v>
       </c>
       <c r="G5" s="64">
         <f t="shared" si="1"/>
-        <v>5.72619767723203</v>
+        <v>5.7261976772320349</v>
       </c>
       <c r="H5" s="73">
         <v>30753</v>
@@ -2544,10 +1978,10 @@
       </c>
       <c r="J5" s="66">
         <f t="shared" si="2"/>
-        <v>3.19412740220466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>3.1941274022046628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="69" t="s">
         <v>20</v>
       </c>
@@ -2559,30 +1993,30 @@
       </c>
       <c r="D6" s="62">
         <f t="shared" si="0"/>
-        <v>4.91684229012996</v>
+        <v>4.9168422901299618</v>
       </c>
       <c r="E6" s="74">
         <v>30744</v>
       </c>
       <c r="F6" s="72">
-        <v>18522.6</v>
+        <v>18522.599999999999</v>
       </c>
       <c r="G6" s="64">
         <f t="shared" si="1"/>
-        <v>6.02478532396565</v>
+        <v>6.0247853239656513</v>
       </c>
       <c r="H6" s="73">
         <v>28860</v>
       </c>
       <c r="I6" s="65">
-        <v>10220.7</v>
+        <v>10220.700000000001</v>
       </c>
       <c r="J6" s="66">
         <f t="shared" si="2"/>
-        <v>3.54147609147609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>3.5414760914760919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="75" t="s">
         <v>21</v>
       </c>
@@ -2594,7 +2028,7 @@
       </c>
       <c r="D7" s="62">
         <f t="shared" si="0"/>
-        <v>4.59750173490631</v>
+        <v>4.5975017349063148</v>
       </c>
       <c r="E7" s="74">
         <v>29962</v>
@@ -2604,7 +2038,7 @@
       </c>
       <c r="G7" s="64">
         <f t="shared" si="1"/>
-        <v>6.27154395567719</v>
+        <v>6.271543955677191</v>
       </c>
       <c r="H7" s="73">
         <v>26653</v>
@@ -2614,10 +2048,10 @@
       </c>
       <c r="J7" s="66">
         <f t="shared" si="2"/>
-        <v>3.73826586125389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>3.7382658612538928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="76" t="s">
         <v>22</v>
       </c>
@@ -2629,7 +2063,7 @@
       </c>
       <c r="D8" s="62">
         <f t="shared" si="0"/>
-        <v>5.28738902799909</v>
+        <v>5.2873890279990903</v>
       </c>
       <c r="E8" s="74">
         <v>28847</v>
@@ -2639,7 +2073,7 @@
       </c>
       <c r="G8" s="64">
         <f t="shared" si="1"/>
-        <v>6.26020036745589</v>
+        <v>6.2602003674558881</v>
       </c>
       <c r="H8" s="73">
         <v>22793</v>
@@ -2649,10 +2083,10 @@
       </c>
       <c r="J8" s="66">
         <f t="shared" si="2"/>
-        <v>4.27521607511078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>4.2752160751107802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="76" t="s">
         <v>23</v>
       </c>
@@ -2664,7 +2098,7 @@
       </c>
       <c r="D9" s="62">
         <f t="shared" si="0"/>
-        <v>5.32631837824544</v>
+        <v>5.3263183782454417</v>
       </c>
       <c r="E9" s="74">
         <v>28938</v>
@@ -2674,7 +2108,7 @@
       </c>
       <c r="G9" s="64">
         <f t="shared" si="1"/>
-        <v>6.27956320409151</v>
+        <v>6.2795632040915059</v>
       </c>
       <c r="H9" s="73">
         <v>23613</v>
@@ -2684,10 +2118,10 @@
       </c>
       <c r="J9" s="66">
         <f t="shared" si="2"/>
-        <v>4.59348663871596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>4.5934866387159614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="76" t="s">
         <v>24</v>
       </c>
@@ -2699,17 +2133,17 @@
       </c>
       <c r="D10" s="62">
         <f t="shared" si="0"/>
-        <v>5.16663335997868</v>
+        <v>5.1666333599786842</v>
       </c>
       <c r="E10" s="74">
         <v>28973</v>
       </c>
       <c r="F10" s="72">
-        <v>18638.1</v>
+        <v>18638.099999999999</v>
       </c>
       <c r="G10" s="64">
         <f t="shared" si="1"/>
-        <v>6.43292030511166</v>
+        <v>6.4329203051116561</v>
       </c>
       <c r="H10" s="73">
         <v>23770</v>
@@ -2719,10 +2153,10 @@
       </c>
       <c r="J10" s="66">
         <f t="shared" si="2"/>
-        <v>4.60769877997476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>4.6076987799747577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="76" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +2168,7 @@
       </c>
       <c r="D11" s="62">
         <f t="shared" si="0"/>
-        <v>5.55566314838127</v>
+        <v>5.5556631483812655</v>
       </c>
       <c r="E11" s="74">
         <v>29350</v>
@@ -2744,7 +2178,7 @@
       </c>
       <c r="G11" s="64">
         <f t="shared" si="1"/>
-        <v>6.56258943781942</v>
+        <v>6.5625894378194207</v>
       </c>
       <c r="H11" s="73">
         <v>23715</v>
@@ -2754,10 +2188,10 @@
       </c>
       <c r="J11" s="66">
         <f t="shared" si="2"/>
-        <v>4.76204933586338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>4.7620493358633782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="76" t="s">
         <v>26</v>
       </c>
@@ -2765,11 +2199,11 @@
         <v>32948</v>
       </c>
       <c r="C12" s="6">
-        <v>17325.9</v>
+        <v>17325.900000000001</v>
       </c>
       <c r="D12" s="62">
         <f t="shared" si="0"/>
-        <v>5.25855894136215</v>
+        <v>5.2585589413621472</v>
       </c>
       <c r="E12" s="74">
         <v>29793</v>
@@ -2779,7 +2213,7 @@
       </c>
       <c r="G12" s="64">
         <f t="shared" si="1"/>
-        <v>6.58533883798208</v>
+        <v>6.5853388379820768</v>
       </c>
       <c r="H12" s="73">
         <v>24442</v>
@@ -2789,10 +2223,10 @@
       </c>
       <c r="J12" s="66">
         <f t="shared" si="2"/>
-        <v>4.73913755011865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>4.7391375501186488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="76" t="s">
         <v>27</v>
       </c>
@@ -2804,17 +2238,17 @@
       </c>
       <c r="D13" s="62">
         <f t="shared" si="0"/>
-        <v>5.4536409640621</v>
+        <v>5.4536409640620986</v>
       </c>
       <c r="E13" s="74">
         <v>30097</v>
       </c>
       <c r="F13" s="72">
-        <v>19722.6</v>
+        <v>19722.599999999999</v>
       </c>
       <c r="G13" s="64">
         <f t="shared" si="1"/>
-        <v>6.55301192809915</v>
+        <v>6.5530119280991457</v>
       </c>
       <c r="H13" s="73">
         <v>24459</v>
@@ -2824,10 +2258,10 @@
       </c>
       <c r="J13" s="66">
         <f t="shared" si="2"/>
-        <v>4.74839527372337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4.7483952737233741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="76" t="s">
         <v>28</v>
       </c>
@@ -2835,11 +2269,11 @@
         <v>36767</v>
       </c>
       <c r="C14" s="6">
-        <v>21131.6</v>
+        <v>21131.599999999999</v>
       </c>
       <c r="D14" s="62">
         <f t="shared" si="0"/>
-        <v>5.74743655995866</v>
+        <v>5.7474365599586585</v>
       </c>
       <c r="E14" s="74">
         <v>30338</v>
@@ -2849,7 +2283,7 @@
       </c>
       <c r="G14" s="64">
         <f t="shared" si="1"/>
-        <v>6.6874217153405</v>
+        <v>6.6874217153404967</v>
       </c>
       <c r="H14" s="73">
         <v>24523</v>
@@ -2859,10 +2293,10 @@
       </c>
       <c r="J14" s="66">
         <f t="shared" si="2"/>
-        <v>4.83729560004893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>4.8372956000489333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="76" t="s">
         <v>29</v>
       </c>
@@ -2874,7 +2308,7 @@
       </c>
       <c r="D15" s="62">
         <f t="shared" si="0"/>
-        <v>5.86972308164361</v>
+        <v>5.8697230816436115</v>
       </c>
       <c r="E15" s="74">
         <v>30476</v>
@@ -2884,7 +2318,7 @@
       </c>
       <c r="G15" s="64">
         <f t="shared" si="1"/>
-        <v>6.77687360546003</v>
+        <v>6.7768736054600343</v>
       </c>
       <c r="H15" s="73">
         <v>24576</v>
@@ -2894,10 +2328,10 @@
       </c>
       <c r="J15" s="66">
         <f t="shared" si="2"/>
-        <v>4.98616536458333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>4.986165364583333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="76" t="s">
         <v>30</v>
       </c>
@@ -2909,17 +2343,17 @@
       </c>
       <c r="D16" s="62">
         <f t="shared" si="0"/>
-        <v>6.01595680282816</v>
+        <v>6.0159568028281551</v>
       </c>
       <c r="E16" s="74">
         <v>30710</v>
       </c>
       <c r="F16" s="72">
-        <v>20628.6</v>
+        <v>20628.599999999999</v>
       </c>
       <c r="G16" s="64">
         <f t="shared" si="1"/>
-        <v>6.71722565939433</v>
+        <v>6.7172256593943338</v>
       </c>
       <c r="H16" s="73">
         <v>24470</v>
@@ -2929,10 +2363,10 @@
       </c>
       <c r="J16" s="66">
         <f t="shared" si="2"/>
-        <v>5.05557825909277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>5.0555782590927665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="76" t="s">
         <v>31</v>
       </c>
@@ -2940,21 +2374,21 @@
         <v>42997</v>
       </c>
       <c r="C17" s="6">
-        <v>24976.4</v>
+        <v>24976.400000000001</v>
       </c>
       <c r="D17" s="62">
         <f t="shared" si="0"/>
-        <v>5.80887038630602</v>
+        <v>5.8088703863060225</v>
       </c>
       <c r="E17" s="74">
         <v>30765</v>
       </c>
       <c r="F17" s="63">
-        <v>20960.9</v>
+        <v>20960.900000000001</v>
       </c>
       <c r="G17" s="64">
         <f t="shared" si="1"/>
-        <v>6.81322931903137</v>
+        <v>6.8132293190313673</v>
       </c>
       <c r="H17" s="73">
         <v>24472</v>
@@ -2964,7 +2398,7 @@
       </c>
       <c r="J17" s="66">
         <f t="shared" si="2"/>
-        <v>5.24358450474011</v>
+        <v>5.2435845047401113</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2975,11 +2409,11 @@
         <v>44968</v>
       </c>
       <c r="C18" s="6">
-        <v>26499.2</v>
+        <v>26499.200000000001</v>
       </c>
       <c r="D18" s="62">
         <f t="shared" si="0"/>
-        <v>5.89290161892902</v>
+        <v>5.8929016189290166</v>
       </c>
       <c r="E18" s="74">
         <v>30784</v>
@@ -2989,7 +2423,7 @@
       </c>
       <c r="G18" s="64">
         <f t="shared" si="1"/>
-        <v>6.89130717255717</v>
+        <v>6.8913071725571733</v>
       </c>
       <c r="H18" s="73">
         <v>24596</v>
@@ -2999,11 +2433,11 @@
       </c>
       <c r="J18" s="66">
         <f t="shared" si="2"/>
-        <v>5.39270613107822</v>
+        <v>5.3927061310782243</v>
       </c>
       <c r="P18" s="67"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:16">
       <c r="A19" s="76" t="s">
         <v>33</v>
       </c>
@@ -3015,7 +2449,7 @@
       </c>
       <c r="D19" s="62">
         <f t="shared" si="0"/>
-        <v>5.96706505500475</v>
+        <v>5.9670650550047535</v>
       </c>
       <c r="E19" s="74">
         <v>30746</v>
@@ -3025,7 +2459,7 @@
       </c>
       <c r="G19" s="64">
         <f t="shared" si="1"/>
-        <v>6.86573863266767</v>
+        <v>6.8657386326676653</v>
       </c>
       <c r="H19" s="73">
         <v>24694</v>
@@ -3035,10 +2469,10 @@
       </c>
       <c r="J19" s="66">
         <f t="shared" si="2"/>
-        <v>5.39689803191059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>5.3968980319105855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="76" t="s">
         <v>34</v>
       </c>
@@ -3050,17 +2484,17 @@
       </c>
       <c r="D20" s="62">
         <f t="shared" si="0"/>
-        <v>6.11030920540579</v>
+        <v>6.1103092054057875</v>
       </c>
       <c r="E20" s="74">
         <v>30747</v>
       </c>
       <c r="F20" s="63">
-        <v>21267.6</v>
+        <v>21267.599999999999</v>
       </c>
       <c r="G20" s="64">
         <f t="shared" si="1"/>
-        <v>6.91696750902527</v>
+        <v>6.9169675090252705</v>
       </c>
       <c r="H20" s="73">
         <v>24508</v>
@@ -3070,27 +2504,78 @@
       </c>
       <c r="J20" s="66">
         <f t="shared" si="2"/>
-        <v>5.48123061857353</v>
+        <v>5.4812306185735267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="77">
+        <v>42130</v>
+      </c>
+      <c r="C21" s="77">
+        <v>25717.4</v>
+      </c>
+      <c r="D21" s="78">
+        <f>C21/B21*10</f>
+        <v>6.1042962259672446</v>
+      </c>
+      <c r="E21" s="79">
+        <v>30189</v>
+      </c>
+      <c r="F21" s="63">
+        <v>21212.9</v>
+      </c>
+      <c r="G21" s="64">
+        <f>F21/E21*10</f>
+        <v>7.0266984663287957</v>
+      </c>
+      <c r="H21" s="80">
+        <v>24266</v>
+      </c>
+      <c r="I21" s="65">
+        <v>13144</v>
+      </c>
+      <c r="J21" s="66">
+        <f>I21/H21*10</f>
+        <v>5.4166323250638762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="77">
+        <v>41284</v>
+      </c>
+      <c r="C22" s="77">
+        <v>26077</v>
+      </c>
+      <c r="D22" s="78">
+        <f>C22/B22*10</f>
+        <v>6.3164906501308016</v>
+      </c>
+      <c r="I22" s="65">
+        <v>13359</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3125,102 +2610,102 @@
     <col min="30" max="30" width="9.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:32">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE1" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -3229,7 +2714,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="21">
         <f>E2/10</f>
@@ -3240,7 +2725,7 @@
       </c>
       <c r="H2" s="21">
         <f>G2/F2</f>
-        <v>3.22011709755937</v>
+        <v>3.2201170975593714</v>
       </c>
       <c r="I2" s="35">
         <v>1416.2</v>
@@ -3259,7 +2744,7 @@
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:P41" si="0">O2/N2</f>
-        <v>2.59730538922156</v>
+        <v>2.5973053892215572</v>
       </c>
       <c r="AA2" s="47"/>
       <c r="AC2" s="45">
@@ -3278,7 +2763,7 @@
       </c>
       <c r="B3" s="23"/>
       <c r="E3" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="21">
         <f t="shared" ref="F3:F41" si="1">E3/10</f>
@@ -3307,7 +2792,7 @@
       <c r="AA3" s="47"/>
       <c r="AC3" s="45"/>
       <c r="AD3" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="45"/>
       <c r="AF3" s="45"/>
@@ -3324,10 +2809,10 @@
       </c>
       <c r="D4" s="27">
         <f t="shared" ref="D4:D41" si="3">C4/B4</f>
-        <v>2.76008492569002</v>
+        <v>2.7600849256900211</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="1"/>
@@ -3338,7 +2823,7 @@
       </c>
       <c r="H4" s="21">
         <f t="shared" si="2"/>
-        <v>3.01385338010583</v>
+        <v>3.0138533801058327</v>
       </c>
       <c r="I4" s="41">
         <v>1365</v>
@@ -3355,17 +2840,17 @@
       </c>
       <c r="M4" s="36">
         <f>L4/K4</f>
-        <v>4.61516734924446</v>
+        <v>4.6151673492444569</v>
       </c>
       <c r="N4" s="39">
         <v>65.3</v>
       </c>
       <c r="O4" s="40">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>2.13169984686064</v>
+        <v>2.1316998468606432</v>
       </c>
       <c r="Z4" s="48">
         <v>163</v>
@@ -3375,7 +2860,7 @@
       </c>
       <c r="AB4" s="18">
         <f t="shared" ref="AB4:AB41" si="4">AA4/Z4</f>
-        <v>1.35276073619632</v>
+        <v>1.352760736196319</v>
       </c>
       <c r="AC4" s="45">
         <f t="shared" ref="AC4:AC41" si="5">AD4/10</f>
@@ -3392,17 +2877,17 @@
         <v>1981</v>
       </c>
       <c r="B5" s="28">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="C5" s="29">
         <v>455</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="3"/>
-        <v>2.8852251109702</v>
+        <v>2.8852251109701967</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="21">
         <f t="shared" si="1"/>
@@ -3428,7 +2913,7 @@
       </c>
       <c r="P5" s="8">
         <f t="shared" si="0"/>
-        <v>2.40878378378378</v>
+        <v>2.4087837837837838</v>
       </c>
       <c r="Z5" s="48">
         <v>180</v>
@@ -3438,14 +2923,14 @@
       </c>
       <c r="AB5" s="18">
         <f t="shared" si="4"/>
-        <v>1.04611111111111</v>
+        <v>1.0461111111111112</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="5"/>
-        <v>60.53</v>
+        <v>60.529999999999994</v>
       </c>
       <c r="AD5" s="45">
-        <v>605.3</v>
+        <v>605.29999999999995</v>
       </c>
       <c r="AE5" s="45"/>
       <c r="AF5" s="45"/>
@@ -3455,21 +2940,21 @@
         <v>1982</v>
       </c>
       <c r="B6" s="28">
-        <v>136.3</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="C6" s="29">
         <v>352.6</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="3"/>
-        <v>2.58694057226706</v>
+        <v>2.586940572267058</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="1"/>
-        <v>160.55</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="21">
@@ -3491,7 +2976,7 @@
       </c>
       <c r="P6" s="8">
         <f t="shared" si="0"/>
-        <v>2.0970297029703</v>
+        <v>2.0970297029702971</v>
       </c>
       <c r="Z6" s="48">
         <v>213.6</v>
@@ -3501,7 +2986,7 @@
       </c>
       <c r="AB6" s="18">
         <f t="shared" si="4"/>
-        <v>1.14934456928839</v>
+        <v>1.1493445692883895</v>
       </c>
       <c r="AC6" s="45">
         <f t="shared" si="5"/>
@@ -3525,7 +3010,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="3"/>
-        <v>2.82277710109622</v>
+        <v>2.8227771010962242</v>
       </c>
       <c r="E7" s="21">
         <v>1714.9</v>
@@ -3554,7 +3039,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>2.89271255060729</v>
+        <v>2.8927125506072877</v>
       </c>
       <c r="Z7" s="48">
         <v>169.3</v>
@@ -3564,7 +3049,7 @@
       </c>
       <c r="AB7" s="18">
         <f t="shared" si="4"/>
-        <v>1.4087418783225</v>
+        <v>1.4087418783225043</v>
       </c>
       <c r="AC7" s="45">
         <f t="shared" si="5"/>
@@ -3578,7 +3063,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="28">
         <v>192</v>
@@ -3591,7 +3076,7 @@
         <v>3.34375</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="1"/>
@@ -3613,11 +3098,11 @@
         <v>46.4</v>
       </c>
       <c r="O8" s="9">
-        <v>148.3</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="0"/>
-        <v>3.19612068965517</v>
+        <v>3.1961206896551726</v>
       </c>
       <c r="Z8" s="48">
         <v>179.5</v>
@@ -3627,7 +3112,7 @@
       </c>
       <c r="AB8" s="18">
         <f t="shared" si="4"/>
-        <v>1.61838440111421</v>
+        <v>1.6183844011142061</v>
       </c>
       <c r="AC8" s="45">
         <f t="shared" si="5"/>
@@ -3644,28 +3129,28 @@
         <v>18</v>
       </c>
       <c r="B9" s="28">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="C9" s="29">
         <v>386.8</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="3"/>
-        <v>2.45275840202917</v>
+        <v>2.4527584020291697</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="1"/>
-        <v>167.96</v>
+        <v>167.95999999999998</v>
       </c>
       <c r="G9" s="22">
         <v>793.13</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="2"/>
-        <v>4.72213622291022</v>
+        <v>4.7221362229102173</v>
       </c>
       <c r="I9" s="38">
         <v>1677.8</v>
@@ -3682,17 +3167,17 @@
       </c>
       <c r="M9" s="36">
         <f t="shared" ref="M9:M41" si="7">L9/K9</f>
-        <v>3.74040066777963</v>
+        <v>3.7404006677796331</v>
       </c>
       <c r="N9" s="8">
         <v>43.4</v>
       </c>
       <c r="O9" s="9">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="0"/>
-        <v>3.68202764976959</v>
+        <v>3.6820276497695859</v>
       </c>
       <c r="Z9" s="48">
         <v>216.7</v>
@@ -3702,7 +3187,7 @@
       </c>
       <c r="AB9" s="18">
         <f t="shared" si="4"/>
-        <v>1.4476234425473</v>
+        <v>1.4476234425473005</v>
       </c>
       <c r="AC9" s="45">
         <f t="shared" si="5"/>
@@ -3716,7 +3201,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="28">
         <v>168.9</v>
@@ -3726,10 +3211,10 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="3"/>
-        <v>3.74185908821788</v>
+        <v>3.7418590882178804</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="1"/>
@@ -3751,11 +3236,11 @@
         <v>125.85</v>
       </c>
       <c r="L10" s="37">
-        <v>607.3</v>
+        <v>607.29999999999995</v>
       </c>
       <c r="M10" s="36">
         <f t="shared" si="7"/>
-        <v>4.82558601509734</v>
+        <v>4.825586015097338</v>
       </c>
       <c r="N10" s="8">
         <v>54.8</v>
@@ -3765,7 +3250,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="0"/>
-        <v>3.51642335766423</v>
+        <v>3.5164233576642334</v>
       </c>
       <c r="Z10" s="48">
         <v>219.7</v>
@@ -3775,11 +3260,11 @@
       </c>
       <c r="AB10" s="18">
         <f t="shared" si="4"/>
-        <v>1.72052799271734</v>
+        <v>1.720527992717342</v>
       </c>
       <c r="AC10" s="45">
         <f t="shared" si="5"/>
-        <v>48.91</v>
+        <v>48.910000000000004</v>
       </c>
       <c r="AD10" s="45">
         <v>489.1</v>
@@ -3789,7 +3274,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="28">
         <v>197.6</v>
@@ -3799,14 +3284,14 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="3"/>
-        <v>3.26973684210526</v>
+        <v>3.2697368421052633</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" si="1"/>
-        <v>212.22</v>
+        <v>212.21999999999997</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="21">
@@ -3821,14 +3306,14 @@
       </c>
       <c r="K11" s="36">
         <f t="shared" si="6"/>
-        <v>134.11</v>
+        <v>134.10999999999999</v>
       </c>
       <c r="L11" s="37">
         <v>671.5</v>
       </c>
       <c r="M11" s="36">
         <f t="shared" si="7"/>
-        <v>5.00708373723063</v>
+        <v>5.0070837372306318</v>
       </c>
       <c r="N11" s="8">
         <v>66</v>
@@ -3838,7 +3323,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>4.14090909090909</v>
+        <v>4.1409090909090907</v>
       </c>
       <c r="Z11" s="48">
         <v>240</v>
@@ -3848,7 +3333,7 @@
       </c>
       <c r="AB11" s="18">
         <f t="shared" si="4"/>
-        <v>1.59791666666667</v>
+        <v>1.5979166666666667</v>
       </c>
       <c r="AC11" s="45">
         <f t="shared" si="5"/>
@@ -3862,7 +3347,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="28">
         <v>182.8</v>
@@ -3872,10 +3357,10 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="3"/>
-        <v>3.83260393873085</v>
+        <v>3.8326039387308533</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="1"/>
@@ -3894,24 +3379,24 @@
       </c>
       <c r="K12" s="36">
         <f t="shared" si="6"/>
-        <v>131.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="L12" s="37">
         <v>680.6</v>
       </c>
       <c r="M12" s="36">
         <f t="shared" si="7"/>
-        <v>5.1638846737481</v>
+        <v>5.163884673748103</v>
       </c>
       <c r="N12" s="8">
-        <v>66.9</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="O12" s="9">
         <v>305.5</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="0"/>
-        <v>4.56651718983557</v>
+        <v>4.566517189835575</v>
       </c>
       <c r="Z12" s="48">
         <v>242.9</v>
@@ -3921,11 +3406,11 @@
       </c>
       <c r="AB12" s="18">
         <f t="shared" si="4"/>
-        <v>1.58254425689584</v>
+        <v>1.5825442568958419</v>
       </c>
       <c r="AC12" s="45">
         <f t="shared" si="5"/>
-        <v>54.49</v>
+        <v>54.489999999999995</v>
       </c>
       <c r="AD12" s="45">
         <v>544.9</v>
@@ -3935,20 +3420,20 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="28">
         <v>190.4</v>
       </c>
       <c r="C13" s="29">
-        <v>615.2</v>
+        <v>615.20000000000005</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="3"/>
         <v>3.23109243697479</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="21">
         <f t="shared" si="1"/>
@@ -3974,17 +3459,17 @@
       </c>
       <c r="M13" s="36">
         <f t="shared" si="7"/>
-        <v>3.78236369174535</v>
+        <v>3.7823636917453549</v>
       </c>
       <c r="N13" s="8">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="O13" s="9">
-        <v>285.1</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="0"/>
-        <v>4.09626436781609</v>
+        <v>4.0962643678160928</v>
       </c>
       <c r="Z13" s="48">
         <v>226.4</v>
@@ -3994,14 +3479,14 @@
       </c>
       <c r="AB13" s="18">
         <f t="shared" si="4"/>
-        <v>1.28886925795053</v>
+        <v>1.2888692579505301</v>
       </c>
       <c r="AC13" s="45">
         <f t="shared" si="5"/>
         <v>53.73</v>
       </c>
       <c r="AD13" s="45">
-        <v>537.3</v>
+        <v>537.29999999999995</v>
       </c>
       <c r="AE13" s="45"/>
       <c r="AF13" s="45"/>
@@ -4018,10 +3503,10 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="3"/>
-        <v>4.64868603042877</v>
+        <v>4.6486860304287685</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="1"/>
@@ -4032,7 +3517,7 @@
       </c>
       <c r="H14" s="21">
         <f t="shared" si="2"/>
-        <v>6.89265918615655</v>
+        <v>6.8926591861565498</v>
       </c>
       <c r="I14" s="38">
         <v>1835.9</v>
@@ -4049,17 +3534,17 @@
       </c>
       <c r="M14" s="36">
         <f t="shared" si="7"/>
-        <v>5.94786556344732</v>
+        <v>5.9478655634473165</v>
       </c>
       <c r="N14" s="8">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="O14" s="9">
         <v>393.1</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="0"/>
-        <v>5.07881136950904</v>
+        <v>5.0788113695090438</v>
       </c>
       <c r="Z14" s="51">
         <v>207.9</v>
@@ -4069,7 +3554,7 @@
       </c>
       <c r="AB14" s="18">
         <f t="shared" si="4"/>
-        <v>1.56709956709957</v>
+        <v>1.5670995670995671</v>
       </c>
       <c r="AC14" s="45">
         <f t="shared" si="5"/>
@@ -4083,7 +3568,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="28">
         <v>223</v>
@@ -4093,10 +3578,10 @@
       </c>
       <c r="D15" s="27">
         <f t="shared" si="3"/>
-        <v>4.51793721973094</v>
+        <v>4.5179372197309418</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" s="21">
         <f t="shared" si="1"/>
@@ -4108,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="38">
-        <v>2076.7</v>
+        <v>2076.6999999999998</v>
       </c>
       <c r="J15" s="36">
         <v>1372.4</v>
@@ -4122,7 +3607,7 @@
       </c>
       <c r="M15" s="36">
         <f t="shared" si="7"/>
-        <v>6.18332847566307</v>
+        <v>6.183328475663072</v>
       </c>
       <c r="N15" s="8">
         <v>81.2</v>
@@ -4132,7 +3617,7 @@
       </c>
       <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>5.0948275862069</v>
+        <v>5.0948275862068959</v>
       </c>
       <c r="Z15" s="51">
         <v>216</v>
@@ -4142,7 +3627,7 @@
       </c>
       <c r="AB15" s="18">
         <f t="shared" si="4"/>
-        <v>1.43425925925926</v>
+        <v>1.4342592592592593</v>
       </c>
       <c r="AC15" s="45">
         <f t="shared" si="5"/>
@@ -4156,7 +3641,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="28">
         <v>216.6</v>
@@ -4166,10 +3651,10 @@
       </c>
       <c r="D16" s="27">
         <f t="shared" si="3"/>
-        <v>4.81440443213296</v>
+        <v>4.8144044321329638</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="21">
         <f t="shared" si="1"/>
@@ -4195,7 +3680,7 @@
       </c>
       <c r="M16" s="36">
         <f t="shared" si="7"/>
-        <v>6.24638728323699</v>
+        <v>6.2463872832369942</v>
       </c>
       <c r="N16" s="8">
         <v>77.5</v>
@@ -4205,7 +3690,7 @@
       </c>
       <c r="P16" s="8">
         <f t="shared" si="0"/>
-        <v>5.61806451612903</v>
+        <v>5.6180645161290323</v>
       </c>
       <c r="Z16" s="51">
         <v>209.4</v>
@@ -4215,7 +3700,7 @@
       </c>
       <c r="AB16" s="18">
         <f t="shared" si="4"/>
-        <v>1.66714422158548</v>
+        <v>1.6671442215854824</v>
       </c>
       <c r="AC16" s="45">
         <f t="shared" si="5"/>
@@ -4227,9 +3712,9 @@
       <c r="AE16" s="45"/>
       <c r="AF16" s="45"/>
     </row>
-    <row r="17" ht="14.1" customHeight="1" spans="1:32">
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="28">
         <v>177.7</v>
@@ -4239,10 +3724,10 @@
       </c>
       <c r="D17" s="27">
         <f t="shared" si="3"/>
-        <v>5.3832301631964</v>
+        <v>5.3832301631963988</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="1"/>
@@ -4268,7 +3753,7 @@
       </c>
       <c r="M17" s="36">
         <f t="shared" si="7"/>
-        <v>6.98418302499647</v>
+        <v>6.9841830249964696</v>
       </c>
       <c r="N17" s="8">
         <v>76.2</v>
@@ -4278,17 +3763,17 @@
       </c>
       <c r="P17" s="8">
         <f t="shared" si="0"/>
-        <v>5.95669291338583</v>
+        <v>5.956692913385826</v>
       </c>
       <c r="Z17" s="51">
-        <v>297.9</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="AA17" s="53">
         <v>491.5</v>
       </c>
       <c r="AB17" s="18">
         <f t="shared" si="4"/>
-        <v>1.6498825109097</v>
+        <v>1.6498825109097013</v>
       </c>
       <c r="AC17" s="45">
         <f t="shared" si="5"/>
@@ -4302,24 +3787,24 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="28">
         <v>196.4</v>
       </c>
       <c r="C18" s="31">
-        <v>1146.4</v>
+        <v>1146.4000000000001</v>
       </c>
       <c r="D18" s="27">
         <f t="shared" si="3"/>
-        <v>5.83706720977597</v>
+        <v>5.8370672097759675</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="1"/>
-        <v>210.02</v>
+        <v>210.01999999999998</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="21">
@@ -4334,14 +3819,14 @@
       </c>
       <c r="K18" s="36">
         <f t="shared" si="6"/>
-        <v>146.46</v>
+        <v>146.45999999999998</v>
       </c>
       <c r="L18" s="37">
         <v>613.9</v>
       </c>
       <c r="M18" s="36">
         <f t="shared" si="7"/>
-        <v>4.19158814693432</v>
+        <v>4.1915881469343166</v>
       </c>
       <c r="N18" s="8">
         <v>83.7</v>
@@ -4351,21 +3836,21 @@
       </c>
       <c r="P18" s="8">
         <f t="shared" si="0"/>
-        <v>5.76224611708483</v>
+        <v>5.7622461170848265</v>
       </c>
       <c r="Z18" s="51">
-        <v>279.6</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="AA18" s="52">
         <v>513.6</v>
       </c>
       <c r="AB18" s="18">
         <f t="shared" si="4"/>
-        <v>1.83690987124464</v>
+        <v>1.8369098712446352</v>
       </c>
       <c r="AC18" s="45">
         <f t="shared" si="5"/>
-        <v>50.49</v>
+        <v>50.489999999999995</v>
       </c>
       <c r="AD18" s="45">
         <v>504.9</v>
@@ -4381,14 +3866,14 @@
         <v>241.1</v>
       </c>
       <c r="C19" s="31">
-        <v>1219.1</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="3"/>
-        <v>5.05640812940688</v>
+        <v>5.0564081294068846</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="1"/>
@@ -4399,7 +3884,7 @@
       </c>
       <c r="H19" s="21">
         <f t="shared" si="2"/>
-        <v>6.30732477283392</v>
+        <v>6.3073247728339235</v>
       </c>
       <c r="I19" s="38">
         <v>1964.1</v>
@@ -4416,7 +3901,7 @@
       </c>
       <c r="M19" s="36">
         <f t="shared" si="7"/>
-        <v>5.30148270181219</v>
+        <v>5.3014827018121915</v>
       </c>
       <c r="N19" s="8">
         <v>99.2</v>
@@ -4426,7 +3911,7 @@
       </c>
       <c r="P19" s="8">
         <f t="shared" si="0"/>
-        <v>5.2258064516129</v>
+        <v>5.225806451612903</v>
       </c>
       <c r="Z19" s="51">
         <v>251.3</v>
@@ -4436,7 +3921,7 @@
       </c>
       <c r="AB19" s="18">
         <f t="shared" si="4"/>
-        <v>1.74612017508953</v>
+        <v>1.7461201750895343</v>
       </c>
       <c r="AC19" s="45">
         <f t="shared" si="5"/>
@@ -4450,36 +3935,36 @@
       </c>
       <c r="AF19" s="45">
         <f>AE19/AC19</f>
-        <v>2.36925515055468</v>
+        <v>2.3692551505546753</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="28">
-        <v>266.6</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="C20" s="31">
         <v>1445</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" si="3"/>
-        <v>5.42010502625656</v>
+        <v>5.4201050262565635</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="1"/>
-        <v>248.13</v>
+        <v>248.13000000000002</v>
       </c>
       <c r="G20" s="22">
         <v>1753.4</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="2"/>
-        <v>7.06645709910128</v>
+        <v>7.0664570991012772</v>
       </c>
       <c r="I20" s="38">
         <v>2093</v>
@@ -4489,14 +3974,14 @@
       </c>
       <c r="K20" s="36">
         <f t="shared" si="6"/>
-        <v>157.67</v>
+        <v>157.67000000000002</v>
       </c>
       <c r="L20" s="37">
         <v>1047.3</v>
       </c>
       <c r="M20" s="36">
         <f t="shared" si="7"/>
-        <v>6.6423542842646</v>
+        <v>6.6423542842646022</v>
       </c>
       <c r="N20" s="8">
         <v>111.6</v>
@@ -4506,7 +3991,7 @@
       </c>
       <c r="P20" s="8">
         <f t="shared" si="0"/>
-        <v>6.73387096774194</v>
+        <v>6.7338709677419359</v>
       </c>
       <c r="Z20" s="51">
         <v>216.1</v>
@@ -4516,39 +4001,39 @@
       </c>
       <c r="AB20" s="18">
         <f t="shared" si="4"/>
-        <v>1.91346598796853</v>
+        <v>1.9134659879685332</v>
       </c>
       <c r="AC20" s="45">
         <f t="shared" si="5"/>
-        <v>29.61</v>
+        <v>29.610000000000003</v>
       </c>
       <c r="AD20" s="45">
-        <v>296.1</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="AE20" s="56">
-        <v>74.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AF20" s="45">
         <f t="shared" ref="AF20:AF41" si="8">AE20/AC20</f>
-        <v>2.52955082742317</v>
+        <v>2.5295508274231677</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="28">
         <v>254.5</v>
       </c>
       <c r="C21" s="31">
-        <v>1165.9</v>
+        <v>1165.9000000000001</v>
       </c>
       <c r="D21" s="27">
         <f t="shared" si="3"/>
-        <v>4.5811394891945</v>
+        <v>4.5811394891944994</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" si="1"/>
@@ -4559,7 +4044,7 @@
       </c>
       <c r="H21" s="21">
         <f t="shared" si="2"/>
-        <v>5.13527829842719</v>
+        <v>5.1352782984271865</v>
       </c>
       <c r="I21" s="38">
         <v>2134.6</v>
@@ -4576,7 +4061,7 @@
       </c>
       <c r="M21" s="36">
         <f t="shared" si="7"/>
-        <v>4.28816575568832</v>
+        <v>4.2881657556883184</v>
       </c>
       <c r="N21" s="8">
         <v>127.9</v>
@@ -4586,36 +4071,36 @@
       </c>
       <c r="P21" s="8">
         <f t="shared" si="0"/>
-        <v>5.30023455824863</v>
+        <v>5.300234558248631</v>
       </c>
       <c r="Z21" s="51">
         <v>239.4</v>
       </c>
       <c r="AA21" s="53">
-        <v>576.2</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="AB21" s="18">
         <f t="shared" si="4"/>
-        <v>2.40685045948204</v>
+        <v>2.4068504594820386</v>
       </c>
       <c r="AC21" s="45">
         <f t="shared" si="5"/>
         <v>30.96</v>
       </c>
       <c r="AD21" s="45">
-        <v>309.6</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="AE21" s="56">
         <v>73.7</v>
       </c>
       <c r="AF21" s="45">
         <f t="shared" si="8"/>
-        <v>2.38049095607235</v>
+        <v>2.3804909560723515</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="28">
         <v>248.6</v>
@@ -4625,38 +4110,38 @@
       </c>
       <c r="D22" s="27">
         <f t="shared" si="3"/>
-        <v>4.82582461786002</v>
+        <v>4.8258246178600164</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="1"/>
-        <v>242.13</v>
+        <v>242.13000000000002</v>
       </c>
       <c r="G22" s="22">
         <v>1924.7</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="2"/>
-        <v>7.94903564201049</v>
+        <v>7.9490356420104895</v>
       </c>
       <c r="I22" s="38">
-        <v>2206.7</v>
+        <v>2206.6999999999998</v>
       </c>
       <c r="J22" s="36">
         <v>1638</v>
       </c>
       <c r="K22" s="36">
         <f t="shared" si="6"/>
-        <v>163.8</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="L22" s="37">
         <v>1205.3</v>
       </c>
       <c r="M22" s="36">
         <f t="shared" si="7"/>
-        <v>7.35836385836386</v>
+        <v>7.358363858363858</v>
       </c>
       <c r="N22" s="8">
         <v>147.1</v>
@@ -4666,17 +4151,17 @@
       </c>
       <c r="P22" s="8">
         <f t="shared" si="0"/>
-        <v>5.70904146838885</v>
+        <v>5.7090414683888513</v>
       </c>
       <c r="W22" s="14">
-        <v>276.8166</v>
+        <v>276.81659999999999</v>
       </c>
       <c r="X22" s="15">
-        <v>1551.3719</v>
+        <v>1551.3719000000001</v>
       </c>
       <c r="Y22" s="16">
         <f>X22/W22</f>
-        <v>5.60433117089076</v>
+        <v>5.6043311708907639</v>
       </c>
       <c r="Z22" s="51">
         <v>246</v>
@@ -4686,7 +4171,7 @@
       </c>
       <c r="AB22" s="18">
         <f t="shared" si="4"/>
-        <v>1.80731707317073</v>
+        <v>1.8073170731707318</v>
       </c>
       <c r="AC22" s="45">
         <f t="shared" si="5"/>
@@ -4700,25 +4185,25 @@
       </c>
       <c r="AF22" s="45">
         <f t="shared" si="8"/>
-        <v>2.89516924088071</v>
+        <v>2.8951692408807097</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="28">
         <v>265.2</v>
       </c>
       <c r="C23" s="31">
-        <v>1228.4</v>
+        <v>1228.4000000000001</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="3"/>
-        <v>4.63197586726999</v>
+        <v>4.6319758672699853</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="1"/>
@@ -4729,7 +4214,7 @@
       </c>
       <c r="H23" s="21">
         <f t="shared" si="2"/>
-        <v>7.12523679225426</v>
+        <v>7.1252367922542614</v>
       </c>
       <c r="I23" s="38">
         <v>2245.6</v>
@@ -4746,17 +4231,17 @@
       </c>
       <c r="M23" s="36">
         <f t="shared" si="7"/>
-        <v>5.8904517820956</v>
+        <v>5.8904517820956013</v>
       </c>
       <c r="N23" s="8">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="O23" s="9">
         <v>771.4</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="0"/>
-        <v>4.90712468193384</v>
+        <v>4.9071246819338423</v>
       </c>
       <c r="W23" s="14">
         <v>261.572</v>
@@ -4766,7 +4251,7 @@
       </c>
       <c r="Y23" s="16">
         <f t="shared" ref="Y23:Y41" si="9">X23/W23</f>
-        <v>5.61015705044882</v>
+        <v>5.6101570504488247</v>
       </c>
       <c r="Z23" s="51">
         <v>215.3</v>
@@ -4776,11 +4261,11 @@
       </c>
       <c r="AB23" s="18">
         <f t="shared" si="4"/>
-        <v>2.0743149094287</v>
+        <v>2.0743149094287041</v>
       </c>
       <c r="AC23" s="45">
         <f t="shared" si="5"/>
-        <v>27.83</v>
+        <v>27.830000000000002</v>
       </c>
       <c r="AD23" s="45">
         <v>278.3</v>
@@ -4790,7 +4275,7 @@
       </c>
       <c r="AF23" s="45">
         <f t="shared" si="8"/>
-        <v>2.66618756737334</v>
+        <v>2.666187567373338</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -4805,21 +4290,21 @@
       </c>
       <c r="D24" s="27">
         <f t="shared" si="3"/>
-        <v>4.39089394780677</v>
+        <v>4.3908939478067737</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="1"/>
-        <v>182.11</v>
+        <v>182.10999999999999</v>
       </c>
       <c r="G24" s="22">
         <v>993.2</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="2"/>
-        <v>5.45384657624513</v>
+        <v>5.4538465762451276</v>
       </c>
       <c r="I24" s="38">
         <v>2330.1</v>
@@ -4836,27 +4321,27 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="7"/>
-        <v>3.85166959578207</v>
+        <v>3.8516695957820737</v>
       </c>
       <c r="N24" s="8">
-        <v>129.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="O24" s="9">
-        <v>629.2</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="0"/>
-        <v>4.84745762711864</v>
+        <v>4.8474576271186436</v>
       </c>
       <c r="W24" s="14">
-        <v>250.5227</v>
+        <v>250.52269999999999</v>
       </c>
       <c r="X24" s="15">
         <v>1532.37</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="9"/>
-        <v>6.11669122199306</v>
+        <v>6.1166912219930571</v>
       </c>
       <c r="Z24" s="51">
         <v>286.8</v>
@@ -4866,7 +4351,7 @@
       </c>
       <c r="AB24" s="18">
         <f t="shared" si="4"/>
-        <v>1.56938633193863</v>
+        <v>1.5693863319386332</v>
       </c>
       <c r="AC24" s="45">
         <f t="shared" si="5"/>
@@ -4880,12 +4365,12 @@
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="8"/>
-        <v>2.60901837075524</v>
+        <v>2.6090183707552419</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="28">
         <v>211</v>
@@ -4895,10 +4380,10 @@
       </c>
       <c r="D25" s="27">
         <f t="shared" si="3"/>
-        <v>3.88388625592417</v>
+        <v>3.8838862559241707</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="1"/>
@@ -4909,10 +4394,10 @@
       </c>
       <c r="H25" s="21">
         <f t="shared" si="2"/>
-        <v>6.89290161892902</v>
+        <v>6.8929016189290166</v>
       </c>
       <c r="I25" s="38">
-        <v>2416.8</v>
+        <v>2416.8000000000002</v>
       </c>
       <c r="J25" s="36">
         <v>1366.3</v>
@@ -4926,7 +4411,7 @@
       </c>
       <c r="M25" s="36">
         <f t="shared" si="7"/>
-        <v>6.10188099246139</v>
+        <v>6.1018809924613926</v>
       </c>
       <c r="N25" s="8">
         <v>151.9</v>
@@ -4936,7 +4421,7 @@
       </c>
       <c r="P25" s="8">
         <f t="shared" si="0"/>
-        <v>4.9835418038183</v>
+        <v>4.9835418038183015</v>
       </c>
       <c r="W25" s="14">
         <v>253.0067</v>
@@ -4946,17 +4431,17 @@
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="9"/>
-        <v>5.2015618558718</v>
+        <v>5.2015618558718009</v>
       </c>
       <c r="Z25" s="51">
-        <v>287.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="AA25" s="52">
         <v>496.2</v>
       </c>
       <c r="AB25" s="18">
         <f t="shared" si="4"/>
-        <v>1.72651356993737</v>
+        <v>1.7265135699373697</v>
       </c>
       <c r="AC25" s="45">
         <f t="shared" si="5"/>
@@ -4970,12 +4455,12 @@
       </c>
       <c r="AF25" s="45">
         <f t="shared" si="8"/>
-        <v>2.81417785234899</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:32">
+        <v>2.8141778523489935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" s="25">
         <v>223.7</v>
@@ -4985,10 +4470,10 @@
       </c>
       <c r="D26" s="27">
         <f t="shared" si="3"/>
-        <v>4.78542691104157</v>
+        <v>4.7854269110415739</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="1"/>
@@ -4999,7 +4484,7 @@
       </c>
       <c r="H26" s="21">
         <f t="shared" si="2"/>
-        <v>5.97014925373134</v>
+        <v>5.9701492537313436</v>
       </c>
       <c r="I26" s="42">
         <v>2258.9</v>
@@ -5016,37 +4501,37 @@
       </c>
       <c r="M26" s="36">
         <f t="shared" si="7"/>
-        <v>6.37517023869257</v>
+        <v>6.3751702386925668</v>
       </c>
       <c r="N26" s="8">
-        <v>156.2</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="O26" s="9">
         <v>821.5</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="0"/>
-        <v>5.25928297055058</v>
+        <v>5.2592829705505766</v>
       </c>
       <c r="W26" s="14">
-        <v>240.5893</v>
+        <v>240.58930000000001</v>
       </c>
       <c r="X26" s="15">
         <v>1411.02</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="9"/>
-        <v>5.86484935115568</v>
+        <v>5.8648493511556827</v>
       </c>
       <c r="Z26" s="51">
-        <v>263.1</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="AA26" s="53">
-        <v>556.3</v>
+        <v>556.29999999999995</v>
       </c>
       <c r="AB26" s="18">
         <f t="shared" si="4"/>
-        <v>2.11440516913721</v>
+        <v>2.1144051691372097</v>
       </c>
       <c r="AC26" s="45">
         <f t="shared" si="5"/>
@@ -5060,12 +4545,12 @@
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="8"/>
-        <v>4.45686746987952</v>
+        <v>4.4568674698795183</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="33">
         <v>203.5</v>
@@ -5075,21 +4560,21 @@
       </c>
       <c r="D27" s="27">
         <f t="shared" si="3"/>
-        <v>4.08304668304668</v>
+        <v>4.0830466830466827</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="1"/>
-        <v>262.72</v>
+        <v>262.71999999999997</v>
       </c>
       <c r="G27" s="22">
         <v>1615.3</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="2"/>
-        <v>6.14837088915956</v>
+        <v>6.1483708891595619</v>
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="36">
@@ -5097,14 +4582,14 @@
       </c>
       <c r="K27" s="36">
         <f t="shared" si="6"/>
-        <v>140.14</v>
+        <v>140.14000000000001</v>
       </c>
       <c r="L27" s="37">
         <v>930.5</v>
       </c>
       <c r="M27" s="36">
         <f t="shared" si="7"/>
-        <v>6.63978878264593</v>
+        <v>6.6397887826459252</v>
       </c>
       <c r="N27" s="8">
         <v>159.1</v>
@@ -5114,27 +4599,27 @@
       </c>
       <c r="P27" s="8">
         <f t="shared" si="0"/>
-        <v>5.585795097423</v>
+        <v>5.5857950974230048</v>
       </c>
       <c r="W27" s="14">
-        <v>245.5049</v>
+        <v>245.50489999999999</v>
       </c>
       <c r="X27" s="15">
         <v>1499.1484</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="9"/>
-        <v>6.10638891525179</v>
+        <v>6.1063889152517934</v>
       </c>
       <c r="Z27" s="51">
         <v>324.2</v>
       </c>
       <c r="AA27" s="53">
-        <v>560.8</v>
+        <v>560.79999999999995</v>
       </c>
       <c r="AB27" s="18">
         <f t="shared" si="4"/>
-        <v>1.72979642196175</v>
+        <v>1.7297964219617519</v>
       </c>
       <c r="AC27" s="45">
         <f t="shared" si="5"/>
@@ -5148,12 +4633,12 @@
       </c>
       <c r="AF27" s="45">
         <f t="shared" si="8"/>
-        <v>4.44418604651163</v>
+        <v>4.4441860465116276</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B28" s="33">
         <v>214.2</v>
@@ -5163,21 +4648,21 @@
       </c>
       <c r="D28" s="27">
         <f t="shared" si="3"/>
-        <v>4.90196078431373</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="1"/>
-        <v>290.15</v>
+        <v>290.14999999999998</v>
       </c>
       <c r="G28" s="22">
         <v>1810</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="2"/>
-        <v>6.23815267964846</v>
+        <v>6.2381526796484579</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36">
@@ -5192,7 +4677,7 @@
       </c>
       <c r="M28" s="36">
         <f t="shared" si="7"/>
-        <v>7.36478021678741</v>
+        <v>7.3647802167874064</v>
       </c>
       <c r="N28" s="8">
         <v>167.6</v>
@@ -5202,17 +4687,17 @@
       </c>
       <c r="P28" s="8">
         <f t="shared" si="0"/>
-        <v>5.6563245823389</v>
+        <v>5.6563245823389021</v>
       </c>
       <c r="W28" s="14">
-        <v>273.144</v>
+        <v>273.14400000000001</v>
       </c>
       <c r="X28" s="15">
-        <v>1735.4081</v>
+        <v>1735.4081000000001</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="9"/>
-        <v>6.35345495416337</v>
+        <v>6.3534549541633716</v>
       </c>
       <c r="Z28" s="51">
         <v>340.1</v>
@@ -5222,11 +4707,11 @@
       </c>
       <c r="AB28" s="18">
         <f t="shared" si="4"/>
-        <v>1.98471037930021</v>
+        <v>1.9847103793002057</v>
       </c>
       <c r="AC28" s="45">
         <f t="shared" si="5"/>
-        <v>52.59</v>
+        <v>52.589999999999996</v>
       </c>
       <c r="AD28" s="45">
         <v>525.9</v>
@@ -5236,7 +4721,7 @@
       </c>
       <c r="AF28" s="45">
         <f t="shared" si="8"/>
-        <v>3.17379729986689</v>
+        <v>3.1737972998668948</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -5251,10 +4736,10 @@
       </c>
       <c r="D29" s="27">
         <f t="shared" si="3"/>
-        <v>5.05311355311355</v>
+        <v>5.0531135531135529</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="1"/>
@@ -5265,11 +4750,11 @@
       </c>
       <c r="H29" s="21">
         <f t="shared" si="2"/>
-        <v>6.54006918420294</v>
+        <v>6.5400691842029408</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36">
-        <v>2076.7</v>
+        <v>2076.6999999999998</v>
       </c>
       <c r="K29" s="36">
         <f t="shared" si="6"/>
@@ -5280,7 +4765,7 @@
       </c>
       <c r="M29" s="36">
         <f t="shared" si="7"/>
-        <v>6.4539895025762</v>
+        <v>6.4539895025762029</v>
       </c>
       <c r="N29" s="8">
         <v>180.6</v>
@@ -5290,17 +4775,17 @@
       </c>
       <c r="P29" s="8">
         <f t="shared" si="0"/>
-        <v>5.90365448504983</v>
+        <v>5.9036544850498345</v>
       </c>
       <c r="W29" s="14">
-        <v>284.442</v>
+        <v>284.44200000000001</v>
       </c>
       <c r="X29" s="15">
         <v>1749.32</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" si="9"/>
-        <v>6.15000597661386</v>
+        <v>6.1500059766138611</v>
       </c>
       <c r="Z29" s="51">
         <v>421.5</v>
@@ -5310,21 +4795,21 @@
       </c>
       <c r="AB29" s="18">
         <f t="shared" si="4"/>
-        <v>1.77461447212337</v>
+        <v>1.774614472123369</v>
       </c>
       <c r="AC29" s="45">
         <f t="shared" si="5"/>
-        <v>50.48</v>
+        <v>50.480000000000004</v>
       </c>
       <c r="AD29" s="45">
         <v>504.8</v>
       </c>
       <c r="AE29" s="56">
-        <v>152.83</v>
+        <v>152.83000000000001</v>
       </c>
       <c r="AF29" s="45">
         <f t="shared" si="8"/>
-        <v>3.02753565768621</v>
+        <v>3.0275356576862125</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -5339,21 +4824,21 @@
       </c>
       <c r="D30" s="27">
         <f t="shared" si="3"/>
-        <v>4.39788199697428</v>
+        <v>4.3978819969742817</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="1"/>
-        <v>280.59</v>
+        <v>280.59000000000003</v>
       </c>
       <c r="G30" s="22">
         <v>1984</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="2"/>
-        <v>7.07081506824905</v>
+        <v>7.070815068249046</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36">
@@ -5368,17 +4853,17 @@
       </c>
       <c r="M30" s="36">
         <f t="shared" si="7"/>
-        <v>6.10912208158943</v>
+        <v>6.1091220815894305</v>
       </c>
       <c r="N30" s="8">
         <v>191.6</v>
       </c>
       <c r="O30" s="9">
-        <v>1134.6</v>
+        <v>1134.5999999999999</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="0"/>
-        <v>5.92171189979123</v>
+        <v>5.921711899791231</v>
       </c>
       <c r="Q30" s="10">
         <v>279.99</v>
@@ -5388,17 +4873,17 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" ref="S30:S41" si="10">R30/Q30</f>
-        <v>4.81731490410372</v>
+        <v>4.8173149041037178</v>
       </c>
       <c r="W30" s="14">
-        <v>285.4231</v>
+        <v>285.42309999999998</v>
       </c>
       <c r="X30" s="15">
-        <v>1816.4751</v>
+        <v>1816.4751000000001</v>
       </c>
       <c r="Y30" s="16">
         <f t="shared" si="9"/>
-        <v>6.36414887232323</v>
+        <v>6.3641488723232289</v>
       </c>
       <c r="Z30" s="51">
         <v>424.6</v>
@@ -5408,11 +4893,11 @@
       </c>
       <c r="AB30" s="18">
         <f t="shared" si="4"/>
-        <v>1.53674046161093</v>
+        <v>1.5367404616109279</v>
       </c>
       <c r="AC30" s="45">
         <f t="shared" si="5"/>
-        <v>44.84</v>
+        <v>44.839999999999996</v>
       </c>
       <c r="AD30" s="45">
         <v>448.4</v>
@@ -5422,7 +4907,7 @@
       </c>
       <c r="AF30" s="45">
         <f t="shared" si="8"/>
-        <v>3.34522747546833</v>
+        <v>3.3452274754683322</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -5437,21 +4922,21 @@
       </c>
       <c r="D31" s="27">
         <f t="shared" si="3"/>
-        <v>3.9213316892725</v>
+        <v>3.921331689272503</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="1"/>
-        <v>288.54</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="G31" s="22">
         <v>1779.98</v>
       </c>
       <c r="H31" s="21">
         <f t="shared" si="2"/>
-        <v>6.16891938726</v>
+        <v>6.1689193872599981</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36">
@@ -5462,11 +4947,11 @@
         <v>204.12</v>
       </c>
       <c r="L31" s="37">
-        <v>1192.9</v>
+        <v>1192.9000000000001</v>
       </c>
       <c r="M31" s="36">
         <f t="shared" si="7"/>
-        <v>5.84411130707427</v>
+        <v>5.8441113070742707</v>
       </c>
       <c r="N31" s="8">
         <v>207.4</v>
@@ -5476,7 +4961,7 @@
       </c>
       <c r="P31" s="8">
         <f t="shared" si="0"/>
-        <v>5.66634522661524</v>
+        <v>5.6663452266152365</v>
       </c>
       <c r="Q31" s="10">
         <v>286.26</v>
@@ -5486,17 +4971,17 @@
       </c>
       <c r="S31" s="10">
         <f t="shared" si="10"/>
-        <v>4.96681338643192</v>
+        <v>4.9668133864319151</v>
       </c>
       <c r="W31" s="14">
-        <v>287.4213</v>
+        <v>287.42129999999997</v>
       </c>
       <c r="X31" s="15">
         <v>1887.41</v>
       </c>
       <c r="Y31" s="16">
         <f t="shared" si="9"/>
-        <v>6.56670191109706</v>
+        <v>6.5667019110970557</v>
       </c>
       <c r="Z31" s="51">
         <v>397.9</v>
@@ -5506,7 +4991,7 @@
       </c>
       <c r="AB31" s="18">
         <f t="shared" si="4"/>
-        <v>1.13772304599146</v>
+        <v>1.1377230459914551</v>
       </c>
       <c r="AC31" s="45">
         <f t="shared" si="5"/>
@@ -5520,7 +5005,7 @@
       </c>
       <c r="AF31" s="45">
         <f t="shared" si="8"/>
-        <v>2.17462165308498</v>
+        <v>2.1746216530849827</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -5535,10 +5020,10 @@
       </c>
       <c r="D32" s="27">
         <f t="shared" si="3"/>
-        <v>4.97661730319564</v>
+        <v>4.9766173031956358</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32" s="21">
         <f t="shared" si="1"/>
@@ -5549,7 +5034,7 @@
       </c>
       <c r="H32" s="21">
         <f t="shared" si="2"/>
-        <v>7.12742669701433</v>
+        <v>7.1274266970143261</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36">
@@ -5564,7 +5049,7 @@
       </c>
       <c r="M32" s="36">
         <f t="shared" si="7"/>
-        <v>6.30810700844268</v>
+        <v>6.3081070084426809</v>
       </c>
       <c r="N32" s="8">
         <v>240.2</v>
@@ -5574,7 +5059,7 @@
       </c>
       <c r="P32" s="8">
         <f t="shared" si="0"/>
-        <v>6.00457951706911</v>
+        <v>6.004579517069109</v>
       </c>
       <c r="Q32" s="10">
         <v>284.11</v>
@@ -5584,27 +5069,27 @@
       </c>
       <c r="S32" s="10">
         <f t="shared" si="10"/>
-        <v>5.07620287916652</v>
+        <v>5.0762028791665204</v>
       </c>
       <c r="T32" s="12">
-        <v>289.542</v>
+        <v>289.54199999999997</v>
       </c>
       <c r="U32" s="13">
         <v>1634</v>
       </c>
       <c r="V32" s="12">
         <f>U32/T32</f>
-        <v>5.64339543140546</v>
+        <v>5.6433954314054615</v>
       </c>
       <c r="W32" s="14">
-        <v>291.7333</v>
+        <v>291.73329999999999</v>
       </c>
       <c r="X32" s="15">
-        <v>1921.5014</v>
+        <v>1921.5014000000001</v>
       </c>
       <c r="Y32" s="16">
         <f t="shared" si="9"/>
-        <v>6.58650006701326</v>
+        <v>6.5865000670132625</v>
       </c>
       <c r="Z32" s="58">
         <v>414.8</v>
@@ -5614,7 +5099,7 @@
       </c>
       <c r="AB32" s="18">
         <f t="shared" si="4"/>
-        <v>1.5079556412729</v>
+        <v>1.5079556412729025</v>
       </c>
       <c r="AC32" s="45">
         <f t="shared" si="5"/>
@@ -5628,10 +5113,10 @@
       </c>
       <c r="AF32" s="45">
         <f t="shared" si="8"/>
-        <v>2.34438664932813</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:32">
+        <v>2.3443866493281318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>26</v>
       </c>
@@ -5643,10 +5128,10 @@
       </c>
       <c r="D33" s="27">
         <f t="shared" si="3"/>
-        <v>4.61393856029344</v>
+        <v>4.6139385602934428</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="21">
         <f t="shared" si="1"/>
@@ -5657,7 +5142,7 @@
       </c>
       <c r="H33" s="21">
         <f t="shared" si="2"/>
-        <v>5.95550420861528</v>
+        <v>5.9555042086152836</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36">
@@ -5668,11 +5153,11 @@
         <v>209.25</v>
       </c>
       <c r="L33" s="37">
-        <v>1026.1</v>
+        <v>1026.0999999999999</v>
       </c>
       <c r="M33" s="36">
         <f t="shared" si="7"/>
-        <v>4.9037037037037</v>
+        <v>4.9037037037037035</v>
       </c>
       <c r="N33" s="8">
         <v>256</v>
@@ -5682,7 +5167,7 @@
       </c>
       <c r="P33" s="8">
         <f t="shared" si="0"/>
-        <v>5.813671875</v>
+        <v>5.8136718749999998</v>
       </c>
       <c r="Q33" s="10">
         <v>295.05</v>
@@ -5692,27 +5177,27 @@
       </c>
       <c r="S33" s="10">
         <f t="shared" si="10"/>
-        <v>4.96593797661413</v>
+        <v>4.9659379766141329</v>
       </c>
       <c r="T33" s="12">
-        <v>294.6</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="U33" s="13">
         <v>1634.79</v>
       </c>
       <c r="V33" s="12">
         <f>U33/T33</f>
-        <v>5.54918533604888</v>
+        <v>5.549185336048879</v>
       </c>
       <c r="W33" s="14">
-        <v>295.5267</v>
+        <v>295.52670000000001</v>
       </c>
       <c r="X33" s="15">
         <v>1932.0723</v>
       </c>
       <c r="Y33" s="16">
         <f t="shared" si="9"/>
-        <v>6.53772501773951</v>
+        <v>6.5377250177395139</v>
       </c>
       <c r="Z33" s="58">
         <v>416.5</v>
@@ -5722,11 +5207,11 @@
       </c>
       <c r="AB33" s="18">
         <f t="shared" si="4"/>
-        <v>1.46962785114046</v>
+        <v>1.4696278511404561</v>
       </c>
       <c r="AC33" s="45">
         <f t="shared" si="5"/>
-        <v>46.26</v>
+        <v>46.260000000000005</v>
       </c>
       <c r="AD33" s="45">
         <v>462.6</v>
@@ -5736,7 +5221,7 @@
       </c>
       <c r="AF33" s="45">
         <f t="shared" si="8"/>
-        <v>2.24556852572417</v>
+        <v>2.2455685257241673</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -5747,14 +5232,14 @@
         <v>475.6</v>
       </c>
       <c r="C34" s="32">
-        <v>2513.7</v>
+        <v>2513.6999999999998</v>
       </c>
       <c r="D34" s="27">
         <f t="shared" si="3"/>
-        <v>5.28532380151388</v>
+        <v>5.2853238015138766</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="21">
         <f t="shared" si="1"/>
@@ -5765,7 +5250,7 @@
       </c>
       <c r="H34" s="21">
         <f t="shared" si="2"/>
-        <v>6.20445425985256</v>
+        <v>6.2044542598525618</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36">
@@ -5776,11 +5261,11 @@
         <v>227.74</v>
       </c>
       <c r="L34" s="37">
-        <v>1251.9</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="M34" s="36">
         <f t="shared" si="7"/>
-        <v>5.49705804865197</v>
+        <v>5.4970580486519713</v>
       </c>
       <c r="N34" s="8">
         <v>271</v>
@@ -5790,7 +5275,7 @@
       </c>
       <c r="P34" s="8">
         <f t="shared" si="0"/>
-        <v>6.06531365313653</v>
+        <v>6.0653136531365313</v>
       </c>
       <c r="Q34" s="10">
         <v>300.86</v>
@@ -5800,27 +5285,27 @@
       </c>
       <c r="S34" s="10">
         <f t="shared" si="10"/>
-        <v>5.0146247424051</v>
+        <v>5.0146247424051049</v>
       </c>
       <c r="T34" s="12">
-        <v>322.35</v>
+        <v>322.35000000000002</v>
       </c>
       <c r="U34" s="13">
         <v>1795.31</v>
       </c>
       <c r="V34" s="12">
         <f t="shared" ref="V34:V41" si="11">U34/T34</f>
-        <v>5.56944315185357</v>
+        <v>5.5694431518535747</v>
       </c>
       <c r="W34" s="14">
-        <v>299.5867</v>
+        <v>299.58670000000001</v>
       </c>
       <c r="X34" s="15">
         <v>1978.67</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" si="9"/>
-        <v>6.60466569443837</v>
+        <v>6.6046656944383715</v>
       </c>
       <c r="Z34" s="58">
         <v>372.7</v>
@@ -5830,7 +5315,7 @@
       </c>
       <c r="AB34" s="18">
         <f t="shared" si="4"/>
-        <v>1.65119398980413</v>
+        <v>1.6511939898041319</v>
       </c>
       <c r="AC34" s="45">
         <f t="shared" si="5"/>
@@ -5844,7 +5329,7 @@
       </c>
       <c r="AF34" s="45">
         <f t="shared" si="8"/>
-        <v>2.75526052104208</v>
+        <v>2.755260521042084</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -5859,36 +5344,36 @@
       </c>
       <c r="D35" s="27">
         <f t="shared" si="3"/>
-        <v>5.65173745173745</v>
+        <v>5.6517374517374517</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F35" s="21">
         <f t="shared" si="1"/>
         <v>334.02</v>
       </c>
       <c r="G35" s="22">
-        <v>2392.76</v>
+        <v>2392.7600000000002</v>
       </c>
       <c r="H35" s="21">
         <f t="shared" si="2"/>
-        <v>7.16352314232681</v>
+        <v>7.1635231423268078</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36">
-        <v>2372.2</v>
+        <v>2372.1999999999998</v>
       </c>
       <c r="K35" s="36">
         <f t="shared" si="6"/>
-        <v>237.22</v>
+        <v>237.21999999999997</v>
       </c>
       <c r="L35" s="37">
         <v>1511.7</v>
       </c>
       <c r="M35" s="36">
         <f t="shared" si="7"/>
-        <v>6.37256555096535</v>
+        <v>6.3725655509653496</v>
       </c>
       <c r="N35" s="8">
         <v>295.7</v>
@@ -5898,7 +5383,7 @@
       </c>
       <c r="P35" s="8">
         <f t="shared" si="0"/>
-        <v>6.28508623605005</v>
+        <v>6.2850862360500512</v>
       </c>
       <c r="Q35" s="10">
         <v>303.58</v>
@@ -5908,27 +5393,27 @@
       </c>
       <c r="S35" s="10">
         <f t="shared" si="10"/>
-        <v>5.40088279860333</v>
+        <v>5.4008827986033339</v>
       </c>
       <c r="T35" s="12">
-        <v>339.841</v>
+        <v>339.84100000000001</v>
       </c>
       <c r="U35" s="13">
         <v>1907.22</v>
       </c>
       <c r="V35" s="12">
         <f t="shared" si="11"/>
-        <v>5.61209506798768</v>
+        <v>5.6120950679876769</v>
       </c>
       <c r="W35" s="14">
-        <v>301.8067</v>
+        <v>301.80669999999998</v>
       </c>
       <c r="X35" s="15">
         <v>1994.5135</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="9"/>
-        <v>6.60857926613293</v>
+        <v>6.6085792661329261</v>
       </c>
       <c r="Z35" s="58">
         <v>340.2</v>
@@ -5938,11 +5423,11 @@
       </c>
       <c r="AB35" s="18">
         <f t="shared" si="4"/>
-        <v>1.75925925925926</v>
+        <v>1.7592592592592593</v>
       </c>
       <c r="AC35" s="45">
         <f t="shared" si="5"/>
-        <v>32.87</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="AD35" s="45">
         <v>328.7</v>
@@ -5952,7 +5437,7 @@
       </c>
       <c r="AF35" s="45">
         <f t="shared" si="8"/>
-        <v>3.24003650745361</v>
+        <v>3.2400365074536053</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -5967,21 +5452,21 @@
       </c>
       <c r="D36" s="27">
         <f t="shared" si="3"/>
-        <v>5.38239632847074</v>
+        <v>5.382396328470743</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" s="21">
         <f t="shared" si="1"/>
-        <v>353.42</v>
+        <v>353.41999999999996</v>
       </c>
       <c r="G36" s="22">
         <v>2714.99</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="2"/>
-        <v>7.68204968592609</v>
+        <v>7.6820496859260938</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36">
@@ -5989,14 +5474,14 @@
       </c>
       <c r="K36" s="36">
         <f t="shared" si="6"/>
-        <v>250.46</v>
+        <v>250.45999999999998</v>
       </c>
       <c r="L36" s="37">
         <v>1615.7</v>
       </c>
       <c r="M36" s="36">
         <f t="shared" si="7"/>
-        <v>6.45093028826958</v>
+        <v>6.4509302882695847</v>
       </c>
       <c r="N36" s="8">
         <v>317.5</v>
@@ -6006,17 +5491,17 @@
       </c>
       <c r="P36" s="8">
         <f t="shared" si="0"/>
-        <v>6.3496062992126</v>
+        <v>6.3496062992125983</v>
       </c>
       <c r="Q36" s="10">
-        <v>304.91</v>
+        <v>304.91000000000003</v>
       </c>
       <c r="R36" s="11">
         <v>1649.5</v>
       </c>
       <c r="S36" s="10">
         <f t="shared" si="10"/>
-        <v>5.40979305368797</v>
+        <v>5.4097930536879728</v>
       </c>
       <c r="T36" s="12">
         <v>356.47</v>
@@ -6026,17 +5511,17 @@
       </c>
       <c r="V36" s="12">
         <f t="shared" si="11"/>
-        <v>5.64249445956181</v>
+        <v>5.6424944595618145</v>
       </c>
       <c r="W36" s="14">
-        <v>306.0713</v>
+        <v>306.07130000000001</v>
       </c>
       <c r="X36" s="15">
         <v>1967.14</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" si="9"/>
-        <v>6.42706454345768</v>
+        <v>6.4270645434576847</v>
       </c>
       <c r="Z36" s="58">
         <v>286</v>
@@ -6046,7 +5531,7 @@
       </c>
       <c r="AB36" s="18">
         <f t="shared" si="4"/>
-        <v>1.82342657342657</v>
+        <v>1.8234265734265733</v>
       </c>
       <c r="AC36" s="45">
         <f t="shared" si="5"/>
@@ -6060,7 +5545,7 @@
       </c>
       <c r="AF36" s="45">
         <f t="shared" si="8"/>
-        <v>2.1893468118196</v>
+        <v>2.189346811819596</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -6075,10 +5560,10 @@
       </c>
       <c r="D37" s="27">
         <f t="shared" si="3"/>
-        <v>5.68376198447725</v>
+        <v>5.6837619844772487</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F37" s="21">
         <f t="shared" si="1"/>
@@ -6089,7 +5574,7 @@
       </c>
       <c r="H37" s="21">
         <f t="shared" si="2"/>
-        <v>7.82766136232341</v>
+        <v>7.8276613623234068</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="36">
@@ -6104,7 +5589,7 @@
       </c>
       <c r="M37" s="36">
         <f t="shared" si="7"/>
-        <v>6.96131535476931</v>
+        <v>6.9613153547693134</v>
       </c>
       <c r="N37" s="8">
         <v>353.4</v>
@@ -6114,7 +5599,7 @@
       </c>
       <c r="P37" s="8">
         <f t="shared" si="0"/>
-        <v>6.78438030560272</v>
+        <v>6.784380305602717</v>
       </c>
       <c r="Q37" s="10">
         <v>310.88</v>
@@ -6124,27 +5609,27 @@
       </c>
       <c r="S37" s="10">
         <f t="shared" si="10"/>
-        <v>5.48089294904786</v>
+        <v>5.4808929490478642</v>
       </c>
       <c r="T37" s="12">
         <v>382.36</v>
       </c>
       <c r="U37" s="13">
-        <v>2116.47</v>
+        <v>2116.4699999999998</v>
       </c>
       <c r="V37" s="12">
         <f t="shared" si="11"/>
-        <v>5.53528088712208</v>
+        <v>5.5352808871220835</v>
       </c>
       <c r="W37" s="14">
-        <v>312.6473</v>
+        <v>312.64729999999997</v>
       </c>
       <c r="X37" s="15">
         <v>1988.34</v>
       </c>
       <c r="Y37" s="16">
         <f t="shared" si="9"/>
-        <v>6.3596902963819</v>
+        <v>6.3596902963818973</v>
       </c>
       <c r="Z37" s="58">
         <v>263.7</v>
@@ -6154,7 +5639,7 @@
       </c>
       <c r="AB37" s="18">
         <f t="shared" si="4"/>
-        <v>1.72241183162685</v>
+        <v>1.7224118316268486</v>
       </c>
       <c r="AC37" s="45">
         <f t="shared" si="5"/>
@@ -6168,7 +5653,7 @@
       </c>
       <c r="AF37" s="45">
         <f t="shared" si="8"/>
-        <v>2.57439733998337</v>
+        <v>2.5743973399833751</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -6183,10 +5668,10 @@
       </c>
       <c r="D38" s="27">
         <f t="shared" si="3"/>
-        <v>5.85733452593918</v>
+        <v>5.8573345259391774</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="1"/>
@@ -6197,7 +5682,7 @@
       </c>
       <c r="H38" s="21">
         <f t="shared" si="2"/>
-        <v>7.39451596229109</v>
+        <v>7.3945159622910879</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="36">
@@ -6212,47 +5697,47 @@
       </c>
       <c r="M38" s="36">
         <f t="shared" si="7"/>
-        <v>5.02338057780839</v>
+        <v>5.0233805778083882</v>
       </c>
       <c r="N38" s="8">
         <v>382.9</v>
       </c>
       <c r="O38" s="9">
-        <v>2503.2</v>
+        <v>2503.1999999999998</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="0"/>
-        <v>6.53747714808044</v>
+        <v>6.5374771480804386</v>
       </c>
       <c r="Q38" s="10">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="R38" s="11">
         <v>1670.7</v>
       </c>
       <c r="S38" s="10">
         <f t="shared" si="10"/>
-        <v>5.26885111482544</v>
+        <v>5.2688511148254449</v>
       </c>
       <c r="T38" s="12">
-        <v>400.942</v>
+        <v>400.94200000000001</v>
       </c>
       <c r="U38" s="13">
         <v>2088.89</v>
       </c>
       <c r="V38" s="12">
         <f t="shared" si="11"/>
-        <v>5.20995555466875</v>
+        <v>5.2099555546687544</v>
       </c>
       <c r="W38" s="14">
-        <v>317.3797</v>
+        <v>317.37970000000001</v>
       </c>
       <c r="X38" s="15">
         <v>2050.9</v>
       </c>
       <c r="Y38" s="16">
         <f t="shared" si="9"/>
-        <v>6.46197598649189</v>
+        <v>6.4619759864918898</v>
       </c>
       <c r="Z38" s="58">
         <v>279.3</v>
@@ -6276,7 +5761,7 @@
       </c>
       <c r="AF38" s="45">
         <f t="shared" si="8"/>
-        <v>2.26070840197694</v>
+        <v>2.2607084019769355</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -6291,10 +5776,10 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="3"/>
-        <v>5.81469908979758</v>
+        <v>5.814699089797581</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F39" s="21">
         <f t="shared" si="1"/>
@@ -6305,7 +5790,7 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" si="2"/>
-        <v>7.38343017101456</v>
+        <v>7.3834301710145605</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="36">
@@ -6320,7 +5805,7 @@
       </c>
       <c r="M39" s="36">
         <f t="shared" si="7"/>
-        <v>5.80721324938407</v>
+        <v>5.8072132493840671</v>
       </c>
       <c r="N39" s="8">
         <v>393.8</v>
@@ -6330,7 +5815,7 @@
       </c>
       <c r="P39" s="8">
         <f t="shared" si="0"/>
-        <v>6.73489080751651</v>
+        <v>6.7348908075165053</v>
       </c>
       <c r="Q39" s="10">
         <v>324.81</v>
@@ -6340,41 +5825,41 @@
       </c>
       <c r="S39" s="10">
         <f t="shared" si="10"/>
-        <v>5.14269880853422</v>
+        <v>5.1426988085342202</v>
       </c>
       <c r="T39" s="12">
-        <v>418.991</v>
+        <v>418.99099999999999</v>
       </c>
       <c r="U39" s="13">
         <v>2288.5</v>
       </c>
       <c r="V39" s="12">
         <f t="shared" si="11"/>
-        <v>5.46193116319921</v>
+        <v>5.4619311631992096</v>
       </c>
       <c r="W39" s="14">
-        <v>320.693</v>
+        <v>320.69299999999998</v>
       </c>
       <c r="X39" s="15">
-        <v>2064.95</v>
+        <v>2064.9499999999998</v>
       </c>
       <c r="Y39" s="16">
         <f t="shared" si="9"/>
-        <v>6.43902423813429</v>
+        <v>6.4390242381342899</v>
       </c>
       <c r="Z39" s="58">
-        <v>266.1</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="AA39" s="59">
         <v>498.8</v>
       </c>
       <c r="AB39" s="18">
         <f t="shared" si="4"/>
-        <v>1.87448327696355</v>
+        <v>1.8744832769635473</v>
       </c>
       <c r="AC39" s="45">
         <f t="shared" si="5"/>
-        <v>18.19</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="AD39" s="45">
         <v>181.9</v>
@@ -6384,7 +5869,7 @@
       </c>
       <c r="AF39" s="45">
         <f t="shared" si="8"/>
-        <v>2.76250687190764</v>
+        <v>2.7625068719076413</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -6392,17 +5877,17 @@
         <v>33</v>
       </c>
       <c r="B40" s="33">
-        <v>652.8</v>
+        <v>652.79999999999995</v>
       </c>
       <c r="C40" s="32">
         <v>3912.8</v>
       </c>
       <c r="D40" s="27">
         <f t="shared" si="3"/>
-        <v>5.99387254901961</v>
+        <v>5.993872549019609</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" s="21">
         <f t="shared" si="1"/>
@@ -6413,7 +5898,7 @@
       </c>
       <c r="H40" s="21">
         <f t="shared" si="2"/>
-        <v>7.74700612918435</v>
+        <v>7.7470061291843475</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="36">
@@ -6428,7 +5913,7 @@
       </c>
       <c r="M40" s="36">
         <f t="shared" si="7"/>
-        <v>6.48827872965804</v>
+        <v>6.4882787296580391</v>
       </c>
       <c r="N40" s="8">
         <v>384.4</v>
@@ -6438,7 +5923,7 @@
       </c>
       <c r="P40" s="8">
         <f t="shared" si="0"/>
-        <v>6.66779396462019</v>
+        <v>6.6677939646201878</v>
       </c>
       <c r="Q40" s="10">
         <v>319.11</v>
@@ -6448,37 +5933,37 @@
       </c>
       <c r="S40" s="10">
         <f t="shared" si="10"/>
-        <v>5.4952837579518</v>
+        <v>5.4952837579518032</v>
       </c>
       <c r="T40" s="12">
-        <v>421.046</v>
+        <v>421.04599999999999</v>
       </c>
       <c r="U40" s="13">
         <v>2216.29</v>
       </c>
       <c r="V40" s="12">
         <f t="shared" si="11"/>
-        <v>5.26377165440356</v>
+        <v>5.2637716544035564</v>
       </c>
       <c r="W40" s="43">
-        <v>405.933</v>
+        <v>405.93299999999999</v>
       </c>
       <c r="X40" s="44">
         <v>2613.81</v>
       </c>
       <c r="Y40" s="16">
         <f t="shared" si="9"/>
-        <v>6.43901826163431</v>
+        <v>6.4390182616343088</v>
       </c>
       <c r="Z40" s="58">
         <v>322.3</v>
       </c>
       <c r="AA40" s="59">
-        <v>562.8</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="AB40" s="18">
         <f t="shared" si="4"/>
-        <v>1.74619919329817</v>
+        <v>1.7461991932981693</v>
       </c>
       <c r="AC40" s="45">
         <f t="shared" si="5"/>
@@ -6492,7 +5977,7 @@
       </c>
       <c r="AF40" s="45">
         <f t="shared" si="8"/>
-        <v>2.93333333333333</v>
+        <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -6500,17 +5985,17 @@
         <v>34</v>
       </c>
       <c r="B41" s="33">
-        <v>586.3</v>
+        <v>586.29999999999995</v>
       </c>
       <c r="C41" s="32">
         <v>3703.1</v>
       </c>
       <c r="D41" s="27">
         <f t="shared" si="3"/>
-        <v>6.31604980385468</v>
+        <v>6.316049803854682</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F41" s="21">
         <f t="shared" si="1"/>
@@ -6521,7 +6006,7 @@
       </c>
       <c r="H41" s="21">
         <f t="shared" si="2"/>
-        <v>7.8068683957733</v>
+        <v>7.8068683957732956</v>
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="36">
@@ -6536,7 +6021,7 @@
       </c>
       <c r="M41" s="36">
         <f t="shared" si="7"/>
-        <v>6.64710252600297</v>
+        <v>6.6471025260029721</v>
       </c>
       <c r="N41" s="8">
         <v>371.6</v>
@@ -6546,7 +6031,7 @@
       </c>
       <c r="P41" s="8">
         <f t="shared" si="0"/>
-        <v>6.72066738428418</v>
+        <v>6.7206673842841766</v>
       </c>
       <c r="Q41" s="10">
         <v>354.41</v>
@@ -6556,17 +6041,17 @@
       </c>
       <c r="S41" s="10">
         <f t="shared" si="10"/>
-        <v>5.74334809965859</v>
+        <v>5.7433480996585873</v>
       </c>
       <c r="T41" s="12">
-        <v>399.894</v>
+        <v>399.89400000000001</v>
       </c>
       <c r="U41" s="13">
         <v>2170.14</v>
       </c>
       <c r="V41" s="12">
         <f t="shared" si="11"/>
-        <v>5.42678809884619</v>
+        <v>5.4267880988461936</v>
       </c>
       <c r="W41" s="44">
         <v>400.012</v>
@@ -6576,7 +6061,7 @@
       </c>
       <c r="Y41" s="16">
         <f t="shared" si="9"/>
-        <v>6.65517534473966</v>
+        <v>6.655175344739658</v>
       </c>
       <c r="Z41" s="58">
         <v>373.5</v>
@@ -6586,7 +6071,7 @@
       </c>
       <c r="AB41" s="18">
         <f t="shared" si="4"/>
-        <v>1.84578313253012</v>
+        <v>1.8457831325301204</v>
       </c>
       <c r="AC41" s="45">
         <f t="shared" si="5"/>
@@ -6600,35 +6085,34 @@
       </c>
       <c r="AF41" s="45">
         <f t="shared" si="8"/>
-        <v>3.04632152588556</v>
-      </c>
-    </row>
-    <row r="42" spans="30:30">
+        <v>3.0463215258855585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="AD42" s="61"/>
     </row>
-    <row r="43" spans="30:30">
+    <row r="43" spans="1:32">
       <c r="AD43" s="61"/>
     </row>
-    <row r="44" spans="30:30">
+    <row r="44" spans="1:32">
       <c r="AD44" s="61"/>
     </row>
-    <row r="45" spans="30:30">
+    <row r="45" spans="1:32">
       <c r="AD45" s="61"/>
     </row>
-    <row r="46" spans="30:30">
+    <row r="46" spans="1:32">
       <c r="AD46" s="61"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6640,39 +6124,39 @@
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" t="s">
-        <v>125</v>
-      </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T1" t="s">
         <v>33</v>
@@ -6681,27 +6165,27 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AH1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AP1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AS1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <v>225.89</v>
@@ -6716,126 +6200,126 @@
         <v>1789.4</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AA2" t="s">
         <v>137</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AB2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC2" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AD2" t="s">
         <v>137</v>
       </c>
-      <c r="T2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V2" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>135</v>
-      </c>
       <c r="AE2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR2" t="s">
         <v>143</v>
       </c>
-      <c r="AK2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>141</v>
-      </c>
       <c r="AS2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AT2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AU2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C3">
         <v>244.2</v>
       </c>
       <c r="D3">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="E3">
         <v>267.8</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3">
         <v>1209392</v>
@@ -6844,13 +6328,13 @@
         <v>8871394</v>
       </c>
       <c r="J3">
-        <v>1090436.56640733</v>
+        <v>1090436.5664073301</v>
       </c>
       <c r="K3">
-        <v>8348558.11367519</v>
+        <v>8348558.1136751901</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N3" s="1">
         <v>1052713</v>
@@ -6865,7 +6349,7 @@
         <v>8550063</v>
       </c>
       <c r="S3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U3">
         <v>94.5</v>
@@ -6874,7 +6358,7 @@
         <v>110.05</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z3">
         <v>192226</v>
@@ -6895,7 +6379,7 @@
         <v>5754</v>
       </c>
       <c r="AG3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH3">
         <v>150.87</v>
@@ -6907,7 +6391,7 @@
         <v>4593</v>
       </c>
       <c r="AK3">
-        <v>140.83</v>
+        <v>140.83000000000001</v>
       </c>
       <c r="AL3">
         <v>65.2</v>
@@ -6916,15 +6400,15 @@
         <v>4634</v>
       </c>
       <c r="AO3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AQ3">
         <v>2257360</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>18.07</v>
@@ -6939,7 +6423,7 @@
         <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4">
         <v>1249601</v>
@@ -6951,10 +6435,10 @@
         <v>1021387.57592041</v>
       </c>
       <c r="K4">
-        <v>6448960.24849497</v>
+        <v>6448960.2484949697</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N4">
         <v>251</v>
@@ -6969,7 +6453,7 @@
         <v>1484</v>
       </c>
       <c r="S4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U4">
         <v>80.75</v>
@@ -6978,7 +6462,7 @@
         <v>84.53</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z4">
         <v>232150</v>
@@ -6999,7 +6483,7 @@
         <v>6884</v>
       </c>
       <c r="AG4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AH4">
         <v>154.82</v>
@@ -7020,18 +6504,18 @@
         <v>5234</v>
       </c>
       <c r="AO4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ4">
         <v>240261</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="C5">
         <v>107.5</v>
@@ -7043,7 +6527,7 @@
         <v>115.6</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5">
         <v>192387</v>
@@ -7052,13 +6536,13 @@
         <v>1478959</v>
       </c>
       <c r="J5">
-        <v>151040.704702386</v>
+        <v>151040.70470238599</v>
       </c>
       <c r="K5">
-        <v>1090432.50660365</v>
+        <v>1090432.5066036501</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N5">
         <v>3500</v>
@@ -7073,7 +6557,7 @@
         <v>21120</v>
       </c>
       <c r="S5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U5">
         <v>340.5</v>
@@ -7082,7 +6566,7 @@
         <v>365.02</v>
       </c>
       <c r="Y5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z5">
         <v>108728</v>
@@ -7103,7 +6587,7 @@
         <v>6688</v>
       </c>
       <c r="AG5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH5">
         <v>193.09</v>
@@ -7124,15 +6608,15 @@
         <v>4246</v>
       </c>
       <c r="AO5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ5">
         <v>873581</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>6.51</v>
@@ -7147,7 +6631,7 @@
         <v>57.5</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H6">
         <v>76400</v>
@@ -7156,13 +6640,13 @@
         <v>440447</v>
       </c>
       <c r="J6">
-        <v>38494.9898138443</v>
+        <v>38494.989813844302</v>
       </c>
       <c r="K6">
-        <v>238229.160529445</v>
+        <v>238229.16052944501</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N6">
         <v>7710</v>
@@ -7177,7 +6661,7 @@
         <v>46449</v>
       </c>
       <c r="S6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U6">
         <v>363</v>
@@ -7186,7 +6670,7 @@
         <v>411.71</v>
       </c>
       <c r="Y6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z6">
         <v>102686</v>
@@ -7207,7 +6691,7 @@
         <v>6533</v>
       </c>
       <c r="AG6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AH6">
         <v>180.31</v>
@@ -7228,15 +6712,15 @@
         <v>4591</v>
       </c>
       <c r="AO6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AQ6">
         <v>866092</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7">
         <v>3.5</v>
@@ -7251,7 +6735,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7">
         <v>243966</v>
@@ -7260,13 +6744,13 @@
         <v>1851925</v>
       </c>
       <c r="J7">
-        <v>159783.516678881</v>
+        <v>159783.51667888099</v>
       </c>
       <c r="K7">
-        <v>1241168.22901709</v>
+        <v>1241168.2290170901</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N7">
         <v>1692</v>
@@ -7281,7 +6765,7 @@
         <v>10035</v>
       </c>
       <c r="S7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U7">
         <v>633.49</v>
@@ -7290,7 +6774,7 @@
         <v>704.71</v>
       </c>
       <c r="Y7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z7">
         <v>77599</v>
@@ -7311,13 +6795,13 @@
         <v>6044</v>
       </c>
       <c r="AG7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AH7">
         <v>241.16</v>
       </c>
       <c r="AI7">
-        <v>148.86</v>
+        <v>148.86000000000001</v>
       </c>
       <c r="AJ7">
         <v>6173</v>
@@ -7332,15 +6816,15 @@
         <v>6285</v>
       </c>
       <c r="AO7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ7">
         <v>539058</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>9.48</v>
@@ -7355,7 +6839,7 @@
         <v>65.2</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8">
         <v>446612</v>
@@ -7364,13 +6848,13 @@
         <v>3197498</v>
       </c>
       <c r="J8">
-        <v>399309.60686526</v>
+        <v>399309.60686525999</v>
       </c>
       <c r="K8">
-        <v>3104102.95770634</v>
+        <v>3104102.9577063401</v>
       </c>
       <c r="M8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N8">
         <v>4766</v>
@@ -7385,7 +6869,7 @@
         <v>27094</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="U8">
         <v>381.1</v>
@@ -7394,7 +6878,7 @@
         <v>424.49</v>
       </c>
       <c r="Y8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z8">
         <v>157308</v>
@@ -7412,10 +6896,10 @@
         <v>6304</v>
       </c>
       <c r="AG8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AH8">
-        <v>79.21</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="AI8">
         <v>54.1</v>
@@ -7433,15 +6917,15 @@
         <v>6835</v>
       </c>
       <c r="AO8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AQ8">
         <v>1697196</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>30.77</v>
@@ -7456,7 +6940,7 @@
         <v>210.7</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H9">
         <v>51182</v>
@@ -7465,13 +6949,13 @@
         <v>241275</v>
       </c>
       <c r="J9">
-        <v>19937.4866766354</v>
+        <v>19937.486676635399</v>
       </c>
       <c r="K9">
         <v>127422.865348933</v>
       </c>
       <c r="M9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N9">
         <v>71719</v>
@@ -7486,7 +6970,7 @@
         <v>522447</v>
       </c>
       <c r="S9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="U9">
         <v>3.6</v>
@@ -7495,7 +6979,7 @@
         <v>5.92</v>
       </c>
       <c r="Y9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z9">
         <v>345171</v>
@@ -7516,7 +7000,7 @@
         <v>6369</v>
       </c>
       <c r="AG9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH9">
         <v>257.81</v>
@@ -7528,7 +7012,7 @@
         <v>5481</v>
       </c>
       <c r="AK9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL9">
         <v>168.17</v>
@@ -7537,15 +7021,15 @@
         <v>5720</v>
       </c>
       <c r="AO9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AQ9">
         <v>1133605</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B10">
         <v>4.53</v>
@@ -7560,7 +7044,7 @@
         <v>22.8</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10">
         <v>526070</v>
@@ -7569,13 +7053,13 @@
         <v>3567647</v>
       </c>
       <c r="J10">
-        <v>333807.97686781</v>
+        <v>333807.97686781001</v>
       </c>
       <c r="K10">
         <v>2460145.81910339</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N10">
         <v>166929</v>
@@ -7590,7 +7074,7 @@
         <v>932916</v>
       </c>
       <c r="S10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U10">
         <v>27.71</v>
@@ -7599,7 +7083,7 @@
         <v>30.06</v>
       </c>
       <c r="Y10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z10">
         <v>241569</v>
@@ -7620,7 +7104,7 @@
         <v>6737</v>
       </c>
       <c r="AG10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AH10">
         <v>123.24</v>
@@ -7641,15 +7125,15 @@
         <v>6903</v>
       </c>
       <c r="AO10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AQ10">
         <v>2900338</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B11">
         <v>26.52</v>
@@ -7664,7 +7148,7 @@
         <v>183.5</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H11">
         <v>125247</v>
@@ -7673,13 +7157,13 @@
         <v>773540</v>
       </c>
       <c r="J11">
-        <v>111349.228894337</v>
+        <v>111349.22889433699</v>
       </c>
       <c r="K11">
         <v>656603.914970755</v>
       </c>
       <c r="M11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N11">
         <v>7733</v>
@@ -7694,7 +7178,7 @@
         <v>43495</v>
       </c>
       <c r="S11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U11">
         <v>128</v>
@@ -7703,7 +7187,7 @@
         <v>129.57</v>
       </c>
       <c r="Y11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z11">
         <v>169780</v>
@@ -7724,19 +7208,19 @@
         <v>7242</v>
       </c>
       <c r="AG11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AH11">
         <v>124.67</v>
       </c>
       <c r="AI11">
-        <v>76.35</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="AJ11">
         <v>6124</v>
       </c>
       <c r="AK11">
-        <v>149.55</v>
+        <v>149.55000000000001</v>
       </c>
       <c r="AL11">
         <v>95.05</v>
@@ -7745,15 +7229,15 @@
         <v>6356</v>
       </c>
       <c r="AO11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AQ11">
         <v>308441</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:47">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>8.36</v>
@@ -7768,7 +7252,7 @@
         <v>62.3</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H12">
         <v>309272</v>
@@ -7780,10 +7264,10 @@
         <v>272164.958811355</v>
       </c>
       <c r="K12">
-        <v>1797961.67951452</v>
+        <v>1797961.6795145201</v>
       </c>
       <c r="M12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>2124</v>
@@ -7798,7 +7282,7 @@
         <v>12231</v>
       </c>
       <c r="S12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U12">
         <v>188</v>
@@ -7807,7 +7291,7 @@
         <v>212.98</v>
       </c>
       <c r="Y12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z12">
         <v>64190</v>
@@ -7828,7 +7312,7 @@
         <v>6370</v>
       </c>
       <c r="AG12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AH12">
         <v>172.57</v>
@@ -7840,7 +7324,7 @@
         <v>6219</v>
       </c>
       <c r="AK12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL12">
         <v>99.73</v>
@@ -7849,15 +7333,15 @@
         <v>6244</v>
       </c>
       <c r="AO12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AQ12">
         <v>2386344</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <v>1.49</v>
@@ -7872,7 +7356,7 @@
         <v>13.8</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13">
         <v>219132</v>
@@ -7884,10 +7368,10 @@
         <v>125343.554621987</v>
       </c>
       <c r="K13">
-        <v>841963.126774594</v>
+        <v>841963.12677459395</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N13">
         <v>4318</v>
@@ -7902,7 +7386,7 @@
         <v>22297</v>
       </c>
       <c r="S13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="U13">
         <v>3.69</v>
@@ -7911,7 +7395,7 @@
         <v>3.58</v>
       </c>
       <c r="Y13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Z13">
         <v>62633</v>
@@ -7932,7 +7416,7 @@
         <v>6918</v>
       </c>
       <c r="AG13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AH13">
         <v>101.24</v>
@@ -7953,15 +7437,15 @@
         <v>6734</v>
       </c>
       <c r="AO13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AQ13">
         <v>1873790</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:47">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B14">
         <v>39.01</v>
@@ -7976,7 +7460,7 @@
         <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14">
         <v>1158115</v>
@@ -7985,13 +7469,13 @@
         <v>8969020</v>
       </c>
       <c r="J14">
-        <v>978959.669447188</v>
+        <v>978959.66944718803</v>
       </c>
       <c r="K14">
         <v>7510252.94593745</v>
       </c>
       <c r="M14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N14">
         <v>2273</v>
@@ -8006,7 +7490,7 @@
         <v>10405</v>
       </c>
       <c r="S14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U14">
         <v>14.7</v>
@@ -8015,7 +7499,7 @@
         <v>15.08</v>
       </c>
       <c r="Y14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z14">
         <v>27177</v>
@@ -8036,7 +7520,7 @@
         <v>6636</v>
       </c>
       <c r="AG14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AH14">
         <v>59</v>
@@ -8057,15 +7541,15 @@
         <v>3975</v>
       </c>
       <c r="AO14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AQ14">
         <v>2116389</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:47">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15">
         <v>29.87</v>
@@ -8074,13 +7558,13 @@
         <v>209.1</v>
       </c>
       <c r="D15">
-        <v>33.27</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="E15">
         <v>231.7</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H15">
         <v>6581</v>
@@ -8095,7 +7579,7 @@
         <v>12439.8328548556</v>
       </c>
       <c r="M15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N15">
         <v>10934</v>
@@ -8110,7 +7594,7 @@
         <v>59361</v>
       </c>
       <c r="Y15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z15">
         <v>235955</v>
@@ -8131,7 +7615,7 @@
         <v>6475</v>
       </c>
       <c r="AG15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AH15">
         <v>368.21</v>
@@ -8152,15 +7636,15 @@
         <v>4808</v>
       </c>
       <c r="AO15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AQ15">
         <v>2645152</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:47">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B16">
         <v>14.49</v>
@@ -8175,7 +7659,7 @@
         <v>74.5</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16">
         <v>620865</v>
@@ -8184,13 +7668,13 @@
         <v>5575989</v>
       </c>
       <c r="J16">
-        <v>447354.171119355</v>
+        <v>447354.17111935501</v>
       </c>
       <c r="K16">
         <v>3805819.74226839</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N16">
         <v>313600</v>
@@ -8205,7 +7689,7 @@
         <v>2849254</v>
       </c>
       <c r="Y16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Z16">
         <v>394546</v>
@@ -8226,7 +7710,7 @@
         <v>7086</v>
       </c>
       <c r="AG16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH16">
         <v>363.72</v>
@@ -8249,7 +7733,7 @@
     </row>
     <row r="17" spans="7:39">
       <c r="G17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H17">
         <v>217</v>
@@ -8258,13 +7742,13 @@
         <v>1103</v>
       </c>
       <c r="J17">
-        <v>298.98000014949</v>
+        <v>298.98000014949002</v>
       </c>
       <c r="K17">
         <v>1573</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N17">
         <v>297249</v>
@@ -8279,7 +7763,7 @@
         <v>2790252</v>
       </c>
       <c r="Y17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z17">
         <v>342947</v>
@@ -8300,7 +7784,7 @@
         <v>6841</v>
       </c>
       <c r="AG17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AH17">
         <v>30.72</v>
@@ -8323,7 +7807,7 @@
     </row>
     <row r="18" spans="7:39">
       <c r="G18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H18">
         <v>9166</v>
@@ -8332,13 +7816,13 @@
         <v>60903</v>
       </c>
       <c r="J18">
-        <v>5568.000002784</v>
+        <v>5568.0000027839997</v>
       </c>
       <c r="K18">
-        <v>35919.49033152</v>
+        <v>35919.490331519999</v>
       </c>
       <c r="M18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N18">
         <v>157915</v>
@@ -8353,7 +7837,7 @@
         <v>1201223</v>
       </c>
       <c r="Y18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z18">
         <v>217043</v>
@@ -8374,7 +7858,7 @@
         <v>6533</v>
       </c>
       <c r="AG18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AH18">
         <v>427.55</v>
@@ -8395,9 +7879,9 @@
         <v>5884</v>
       </c>
     </row>
-    <row r="19" spans="13:39">
+    <row r="19" spans="7:39">
       <c r="M19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N19">
         <v>485285</v>
@@ -8412,7 +7896,7 @@
         <v>3434916</v>
       </c>
       <c r="Y19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z19">
         <v>362512</v>
@@ -8433,7 +7917,7 @@
         <v>6705</v>
       </c>
       <c r="AG19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AH19">
         <v>453.36</v>
@@ -8454,9 +7938,9 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="20" spans="13:39">
+    <row r="20" spans="7:39">
       <c r="M20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N20">
         <v>16863</v>
@@ -8471,7 +7955,7 @@
         <v>123015</v>
       </c>
       <c r="AG20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH20">
         <v>19.7</v>
@@ -8492,9 +7976,9 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="21" spans="13:17">
+    <row r="21" spans="7:39">
       <c r="M21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N21">
         <v>18584</v>
@@ -8509,9 +7993,9 @@
         <v>136748</v>
       </c>
     </row>
-    <row r="22" spans="13:17">
+    <row r="22" spans="7:39">
       <c r="M22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N22">
         <v>16044</v>
@@ -8526,9 +8010,9 @@
         <v>100929</v>
       </c>
     </row>
-    <row r="23" spans="13:17">
+    <row r="23" spans="7:39">
       <c r="M23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>7998</v>
@@ -8543,9 +8027,9 @@
         <v>56805</v>
       </c>
     </row>
-    <row r="24" spans="13:17">
+    <row r="24" spans="7:39">
       <c r="M24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N24">
         <v>3200</v>
@@ -8560,9 +8044,9 @@
         <v>13863</v>
       </c>
     </row>
-    <row r="25" spans="13:17">
+    <row r="25" spans="7:39">
       <c r="M25" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N25">
         <v>2238</v>
@@ -8577,9 +8061,9 @@
         <v>17723</v>
       </c>
     </row>
-    <row r="26" spans="13:17">
+    <row r="26" spans="7:39">
       <c r="M26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N26">
         <v>5497</v>
@@ -8594,9 +8078,9 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="27" spans="13:17">
+    <row r="27" spans="7:39">
       <c r="M27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N27">
         <v>51296</v>
@@ -8611,9 +8095,9 @@
         <v>419230</v>
       </c>
     </row>
-    <row r="28" spans="13:17">
+    <row r="28" spans="7:39">
       <c r="M28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N28">
         <v>72935</v>
@@ -8628,9 +8112,9 @@
         <v>521366</v>
       </c>
     </row>
-    <row r="29" spans="13:17">
+    <row r="29" spans="7:39">
       <c r="M29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N29">
         <v>114178</v>
@@ -8645,9 +8129,9 @@
         <v>734038</v>
       </c>
     </row>
-    <row r="30" spans="13:17">
+    <row r="30" spans="7:39">
       <c r="M30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N30">
         <v>86568</v>
@@ -8662,9 +8146,9 @@
         <v>592224</v>
       </c>
     </row>
-    <row r="31" spans="13:17">
+    <row r="31" spans="7:39">
       <c r="M31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N31">
         <v>89884</v>
@@ -8679,9 +8163,9 @@
         <v>679662</v>
       </c>
     </row>
-    <row r="32" spans="13:17">
+    <row r="32" spans="7:39">
       <c r="M32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N32">
         <v>788781</v>
@@ -8698,7 +8182,7 @@
     </row>
     <row r="33" spans="13:17">
       <c r="M33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N33">
         <v>9230</v>
@@ -8715,7 +8199,7 @@
     </row>
     <row r="34" spans="13:17">
       <c r="M34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N34">
         <v>20396</v>
@@ -8732,7 +8216,7 @@
     </row>
     <row r="35" spans="13:17">
       <c r="M35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35">
         <v>18833</v>
@@ -8749,7 +8233,7 @@
     </row>
     <row r="36" spans="13:17">
       <c r="M36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N36">
         <v>212153</v>
@@ -8766,7 +8250,7 @@
     </row>
     <row r="37" spans="13:17">
       <c r="M37" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N37">
         <v>116315</v>
@@ -8783,7 +8267,7 @@
     </row>
     <row r="38" spans="13:17">
       <c r="M38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N38">
         <v>286540</v>
@@ -8800,7 +8284,7 @@
     </row>
     <row r="39" spans="13:17">
       <c r="M39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N39">
         <v>125314</v>
@@ -8817,7 +8301,7 @@
     </row>
     <row r="40" spans="13:17">
       <c r="M40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N40">
         <v>216291</v>
@@ -8834,7 +8318,7 @@
     </row>
     <row r="41" spans="13:17">
       <c r="M41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N41">
         <v>5278</v>
@@ -8851,7 +8335,7 @@
     </row>
     <row r="42" spans="13:17">
       <c r="M42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N42">
         <v>4005</v>
@@ -8868,7 +8352,7 @@
     </row>
     <row r="43" spans="13:17">
       <c r="M43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N43">
         <v>1554</v>
@@ -8885,7 +8369,7 @@
     </row>
     <row r="44" spans="13:17">
       <c r="M44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N44">
         <v>111142</v>
@@ -8902,7 +8386,7 @@
     </row>
     <row r="45" spans="13:17">
       <c r="M45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N45">
         <v>94312</v>
@@ -8919,7 +8403,7 @@
     </row>
     <row r="46" spans="13:17">
       <c r="M46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N46">
         <v>201670</v>
@@ -8936,7 +8420,7 @@
     </row>
     <row r="47" spans="13:17">
       <c r="M47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N47">
         <v>798</v>
@@ -8953,7 +8437,7 @@
     </row>
     <row r="48" spans="13:17">
       <c r="M48" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N48">
         <v>1455</v>
@@ -8970,7 +8454,7 @@
     </row>
     <row r="49" spans="13:17">
       <c r="M49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N49">
         <v>123</v>
@@ -8987,7 +8471,7 @@
     </row>
     <row r="50" spans="13:17">
       <c r="M50" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N50">
         <v>16867</v>
@@ -9004,7 +8488,7 @@
     </row>
     <row r="51" spans="13:17">
       <c r="M51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N51">
         <v>46526</v>
@@ -9021,7 +8505,7 @@
     </row>
     <row r="52" spans="13:17">
       <c r="M52" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N52">
         <v>61375</v>
@@ -9038,7 +8522,7 @@
     </row>
     <row r="53" spans="13:17">
       <c r="M53" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N53">
         <v>67085</v>
@@ -9055,7 +8539,7 @@
     </row>
     <row r="54" spans="13:17">
       <c r="M54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N54">
         <v>7441</v>
@@ -9072,7 +8556,7 @@
     </row>
     <row r="55" spans="13:17">
       <c r="M55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N55">
         <v>31902</v>
@@ -9089,7 +8573,7 @@
     </row>
     <row r="56" spans="13:17">
       <c r="M56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N56">
         <v>3448</v>
@@ -9106,7 +8590,7 @@
     </row>
     <row r="57" spans="13:17">
       <c r="M57" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N57">
         <v>3388</v>
@@ -9123,7 +8607,7 @@
     </row>
     <row r="58" spans="13:17">
       <c r="M58" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N58">
         <v>10544</v>
@@ -9140,7 +8624,7 @@
     </row>
     <row r="59" spans="13:17">
       <c r="M59" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N59">
         <v>7128</v>
@@ -9157,7 +8641,7 @@
     </row>
     <row r="60" spans="13:17">
       <c r="M60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N60">
         <v>2450</v>
@@ -9174,7 +8658,7 @@
     </row>
     <row r="61" spans="13:17">
       <c r="M61" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N61">
         <v>4944</v>
@@ -9191,7 +8675,7 @@
     </row>
     <row r="62" spans="13:17">
       <c r="M62" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N62">
         <v>790849</v>
@@ -9208,7 +8692,7 @@
     </row>
     <row r="63" spans="13:17">
       <c r="M63" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N63">
         <v>39509</v>
@@ -9225,7 +8709,7 @@
     </row>
     <row r="64" spans="13:17">
       <c r="M64" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N64">
         <v>157784</v>
@@ -9242,7 +8726,7 @@
     </row>
     <row r="65" spans="13:17">
       <c r="M65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N65">
         <v>251680</v>
@@ -9259,7 +8743,7 @@
     </row>
     <row r="66" spans="13:17">
       <c r="M66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N66">
         <v>123943</v>
@@ -9276,7 +8760,7 @@
     </row>
     <row r="67" spans="13:17">
       <c r="M67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N67">
         <v>217933</v>
@@ -9293,7 +8777,7 @@
     </row>
     <row r="68" spans="13:17">
       <c r="M68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N68">
         <v>489552</v>
@@ -9310,7 +8794,7 @@
     </row>
     <row r="69" spans="13:17">
       <c r="M69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N69">
         <v>78325</v>
@@ -9327,7 +8811,7 @@
     </row>
     <row r="70" spans="13:17">
       <c r="M70" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N70">
         <v>91949</v>
@@ -9344,7 +8828,7 @@
     </row>
     <row r="71" spans="13:17">
       <c r="M71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N71">
         <v>113295</v>
@@ -9361,7 +8845,7 @@
     </row>
     <row r="72" spans="13:17">
       <c r="M72" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N72">
         <v>140607</v>
@@ -9378,7 +8862,7 @@
     </row>
     <row r="73" spans="13:17">
       <c r="M73" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N73">
         <v>65376</v>
@@ -9395,7 +8879,7 @@
     </row>
     <row r="74" spans="13:17">
       <c r="M74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N74">
         <v>200484</v>
@@ -9412,7 +8896,7 @@
     </row>
     <row r="75" spans="13:17">
       <c r="M75" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N75">
         <v>12041</v>
@@ -9429,7 +8913,7 @@
     </row>
     <row r="76" spans="13:17">
       <c r="M76" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N76">
         <v>7904</v>
@@ -9446,7 +8930,7 @@
     </row>
     <row r="77" spans="13:17">
       <c r="M77" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N77">
         <v>87996</v>
@@ -9463,7 +8947,7 @@
     </row>
     <row r="78" spans="13:17">
       <c r="M78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N78">
         <v>18772</v>
@@ -9480,7 +8964,7 @@
     </row>
     <row r="79" spans="13:17">
       <c r="M79" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N79">
         <v>21274</v>
@@ -9497,7 +8981,7 @@
     </row>
     <row r="80" spans="13:17">
       <c r="M80" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N80">
         <v>16404</v>
@@ -9514,7 +8998,7 @@
     </row>
     <row r="81" spans="13:17">
       <c r="M81" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N81">
         <v>21536</v>
@@ -9531,7 +9015,7 @@
     </row>
     <row r="82" spans="13:17">
       <c r="M82" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N82">
         <v>14557</v>
@@ -9547,7 +9031,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>